--- a/Voltas_non_standard/Mysql/Area_mapping.xlsx
+++ b/Voltas_non_standard/Mysql/Area_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charan\Documents\UiPath\Voltas_auto_non_standard_expenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charan\Documents\UiPath\VoltasNonStandardExpensesRE\Voltas_non_standard\Mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,11 @@
     <sheet name="Nellore mapping" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nellore mapping'!$A$1:$K$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nellore mapping'!$A$1:$K$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$83</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="240">
   <si>
     <t>Franchisee Name</t>
   </si>
@@ -405,6 +408,345 @@
   </si>
   <si>
     <t>Brand</t>
+  </si>
+  <si>
+    <t>Chittoor</t>
+  </si>
+  <si>
+    <t>Tirupati</t>
+  </si>
+  <si>
+    <t>Repair Shop</t>
+  </si>
+  <si>
+    <t>ANIL ENTERPRISES</t>
+  </si>
+  <si>
+    <t>Administrative Building</t>
+  </si>
+  <si>
+    <t>Ram Nagar</t>
+  </si>
+  <si>
+    <t>Vadamalpet</t>
+  </si>
+  <si>
+    <t>Applayagunta</t>
+  </si>
+  <si>
+    <t>ROYAL COOLEX SERVICE CENTER</t>
+  </si>
+  <si>
+    <t>Valmikipuram</t>
+  </si>
+  <si>
+    <t>Ayyavaripalli</t>
+  </si>
+  <si>
+    <t>SRI VENKATESWARA COOL SERVICES</t>
+  </si>
+  <si>
+    <t>Sheeshapuram</t>
+  </si>
+  <si>
+    <t>Mattam Village</t>
+  </si>
+  <si>
+    <t>Ragigunta Po</t>
+  </si>
+  <si>
+    <t>Yerrangunta Palli</t>
+  </si>
+  <si>
+    <t>Chittoor Collectorate</t>
+  </si>
+  <si>
+    <t>Chittoor Sugarfactory</t>
+  </si>
+  <si>
+    <t>Chittoor North</t>
+  </si>
+  <si>
+    <t>Chandragiri H O</t>
+  </si>
+  <si>
+    <t>Narsingapuram</t>
+  </si>
+  <si>
+    <t>Pakala</t>
+  </si>
+  <si>
+    <t>Kallur</t>
+  </si>
+  <si>
+    <t>Sodam</t>
+  </si>
+  <si>
+    <t>Puthala Pattu</t>
+  </si>
+  <si>
+    <t>Gangadhara Nellore</t>
+  </si>
+  <si>
+    <t>Penumur</t>
+  </si>
+  <si>
+    <t>Murakambattu</t>
+  </si>
+  <si>
+    <t>Iruvaram</t>
+  </si>
+  <si>
+    <t>Arugonda</t>
+  </si>
+  <si>
+    <t>Iral</t>
+  </si>
+  <si>
+    <t>Kanipakam</t>
+  </si>
+  <si>
+    <t>Nangamangalam</t>
+  </si>
+  <si>
+    <t>Matyam</t>
+  </si>
+  <si>
+    <t>Damal Cheruvu</t>
+  </si>
+  <si>
+    <t>Kothapalli</t>
+  </si>
+  <si>
+    <t>Mangalam Pet</t>
+  </si>
+  <si>
+    <t>Rompi Cherla</t>
+  </si>
+  <si>
+    <t>Chinna Gottigallu</t>
+  </si>
+  <si>
+    <t>Bakarapet</t>
+  </si>
+  <si>
+    <t>Chitticherla</t>
+  </si>
+  <si>
+    <t>Gyaranpalli Kothapalli</t>
+  </si>
+  <si>
+    <t>Nehru Bazar (Piler)</t>
+  </si>
+  <si>
+    <t>Kalikiri</t>
+  </si>
+  <si>
+    <t>Mahal</t>
+  </si>
+  <si>
+    <t>Kalakada</t>
+  </si>
+  <si>
+    <t>Medikurti</t>
+  </si>
+  <si>
+    <t>Nanasahebpet</t>
+  </si>
+  <si>
+    <t>Chowdepalli</t>
+  </si>
+  <si>
+    <t>Nimmana Palli</t>
+  </si>
+  <si>
+    <t>Tari Gonda</t>
+  </si>
+  <si>
+    <t>Gurram Konda</t>
+  </si>
+  <si>
+    <t>Vayalpad</t>
+  </si>
+  <si>
+    <t>Peddamandem</t>
+  </si>
+  <si>
+    <t>Cherlo Palli</t>
+  </si>
+  <si>
+    <t>Samudram</t>
+  </si>
+  <si>
+    <t>Apparao St</t>
+  </si>
+  <si>
+    <t>Society Colony</t>
+  </si>
+  <si>
+    <t>Madanapalli</t>
+  </si>
+  <si>
+    <t>Kurabalakota</t>
+  </si>
+  <si>
+    <t>Burakayala Kota</t>
+  </si>
+  <si>
+    <t>Rushi Vally</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>Cheruru R S</t>
+  </si>
+  <si>
+    <t>Pedda Tippa Samudram</t>
+  </si>
+  <si>
+    <t>Rama Puram</t>
+  </si>
+  <si>
+    <t>Market Yard</t>
+  </si>
+  <si>
+    <t>Royal Pet</t>
+  </si>
+  <si>
+    <t>Baireddi Palli</t>
+  </si>
+  <si>
+    <t>Bangaru Palem</t>
+  </si>
+  <si>
+    <t>Chembakur</t>
+  </si>
+  <si>
+    <t>Thamballapalli</t>
+  </si>
+  <si>
+    <t>Narasingaraya Pettah</t>
+  </si>
+  <si>
+    <t>Thungundram</t>
+  </si>
+  <si>
+    <t>Yadammarri</t>
+  </si>
+  <si>
+    <t>Venkatagiri Kota</t>
+  </si>
+  <si>
+    <t>Kuppam</t>
+  </si>
+  <si>
+    <t>Mogili Venkatagiri</t>
+  </si>
+  <si>
+    <t>Kolamasana Palli</t>
+  </si>
+  <si>
+    <t>Padi</t>
+  </si>
+  <si>
+    <t>Peru Malla Palli</t>
+  </si>
+  <si>
+    <t>Chiguruvada</t>
+  </si>
+  <si>
+    <t>Papanaidupet</t>
+  </si>
+  <si>
+    <t>Akkurti</t>
+  </si>
+  <si>
+    <t>Rachakandriga Varadaiahpalen Mandal</t>
+  </si>
+  <si>
+    <t>Balijapalli</t>
+  </si>
+  <si>
+    <t>Pachikapallam</t>
+  </si>
+  <si>
+    <t>Sri Bomma Raja Puram</t>
+  </si>
+  <si>
+    <t>Narayana Varam</t>
+  </si>
+  <si>
+    <t>Durga Samudram</t>
+  </si>
+  <si>
+    <t>Vepagunta</t>
+  </si>
+  <si>
+    <t>Pannur</t>
+  </si>
+  <si>
+    <t>Pisattur</t>
+  </si>
+  <si>
+    <t>Sattivedu</t>
+  </si>
+  <si>
+    <t>Nagalapuram</t>
+  </si>
+  <si>
+    <t>Nindra</t>
+  </si>
+  <si>
+    <t>Ekambara Kuppam</t>
+  </si>
+  <si>
+    <t>Vemgal Raja Kuppam</t>
+  </si>
+  <si>
+    <t>Yerpedu</t>
+  </si>
+  <si>
+    <t>Pallam</t>
+  </si>
+  <si>
+    <t>Panagal</t>
+  </si>
+  <si>
+    <t>Thondamanadu</t>
+  </si>
+  <si>
+    <t>Peddakannali</t>
+  </si>
+  <si>
+    <t>Kovanur</t>
+  </si>
+  <si>
+    <t>Kothapeta (Skt)</t>
+  </si>
+  <si>
+    <t>Karvetinagar</t>
+  </si>
+  <si>
+    <t>Vathalur</t>
+  </si>
+  <si>
+    <t>Palamaner</t>
+  </si>
+  <si>
+    <t>Veeranamala</t>
+  </si>
+  <si>
+    <t>Renigunta</t>
+  </si>
+  <si>
+    <t>Srikalahasti</t>
+  </si>
+  <si>
+    <t>Tirumala</t>
+  </si>
+  <si>
+    <t>Akkarampalli (Post)</t>
   </si>
 </sst>
 </file>
@@ -975,6 +1317,1194 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Bot Result"/>
+      <sheetName val="Bot Result1"/>
+      <sheetName val="Tada Chargres ( Chittor Dist )"/>
+      <sheetName val="Example ( Nellore )"/>
+      <sheetName val="Exmaple Prices"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PincodeTO</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>PincodeFrom</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Distance</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>517502</v>
+          </cell>
+          <cell r="B2">
+            <v>517501</v>
+          </cell>
+          <cell r="C2">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>517506</v>
+          </cell>
+          <cell r="B3">
+            <v>517501</v>
+          </cell>
+          <cell r="C3">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>517507</v>
+          </cell>
+          <cell r="B4">
+            <v>517501</v>
+          </cell>
+          <cell r="C4">
+            <v>7.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>517590</v>
+          </cell>
+          <cell r="B5">
+            <v>517501</v>
+          </cell>
+          <cell r="C5">
+            <v>47.5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>517551</v>
+          </cell>
+          <cell r="B6">
+            <v>517501</v>
+          </cell>
+          <cell r="C6">
+            <v>25.7</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>517277</v>
+          </cell>
+          <cell r="B7">
+            <v>517501</v>
+          </cell>
+          <cell r="C7">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>517001</v>
+          </cell>
+          <cell r="B8">
+            <v>517501</v>
+          </cell>
+          <cell r="C8">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>517423</v>
+          </cell>
+          <cell r="B9">
+            <v>517501</v>
+          </cell>
+          <cell r="C9">
+            <v>172</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>517613</v>
+          </cell>
+          <cell r="B10">
+            <v>517501</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Not Found</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>515412</v>
+          </cell>
+          <cell r="B11">
+            <v>517501</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Not Found</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>517002</v>
+          </cell>
+          <cell r="B12">
+            <v>517501</v>
+          </cell>
+          <cell r="C12">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>517003</v>
+          </cell>
+          <cell r="B13">
+            <v>517501</v>
+          </cell>
+          <cell r="C13">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>517004</v>
+          </cell>
+          <cell r="B14">
+            <v>517501</v>
+          </cell>
+          <cell r="C14">
+            <v>71</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>517101</v>
+          </cell>
+          <cell r="B15">
+            <v>517501</v>
+          </cell>
+          <cell r="C15">
+            <v>15.4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>517102</v>
+          </cell>
+          <cell r="B16">
+            <v>517501</v>
+          </cell>
+          <cell r="C16">
+            <v>16.899999999999999</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>517112</v>
+          </cell>
+          <cell r="B17">
+            <v>517501</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Not Found</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>517113</v>
+          </cell>
+          <cell r="B18">
+            <v>517501</v>
+          </cell>
+          <cell r="C18">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>517123</v>
+          </cell>
+          <cell r="B19">
+            <v>517501</v>
+          </cell>
+          <cell r="C19">
+            <v>71</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>517124</v>
+          </cell>
+          <cell r="B20">
+            <v>517501</v>
+          </cell>
+          <cell r="C20">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>517125</v>
+          </cell>
+          <cell r="B21">
+            <v>517501</v>
+          </cell>
+          <cell r="C21">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>517126</v>
+          </cell>
+          <cell r="B22">
+            <v>517501</v>
+          </cell>
+          <cell r="C22">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>517127</v>
+          </cell>
+          <cell r="B23">
+            <v>517501</v>
+          </cell>
+          <cell r="C23">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>517128</v>
+          </cell>
+          <cell r="B24">
+            <v>517501</v>
+          </cell>
+          <cell r="C24">
+            <v>84</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>517129</v>
+          </cell>
+          <cell r="B25">
+            <v>517501</v>
+          </cell>
+          <cell r="C25">
+            <v>76</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>517130</v>
+          </cell>
+          <cell r="B26">
+            <v>517501</v>
+          </cell>
+          <cell r="C26">
+            <v>77</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>517131</v>
+          </cell>
+          <cell r="B27">
+            <v>517501</v>
+          </cell>
+          <cell r="C27">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>517132</v>
+          </cell>
+          <cell r="B28">
+            <v>517501</v>
+          </cell>
+          <cell r="C28">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>517150</v>
+          </cell>
+          <cell r="B29">
+            <v>517501</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Not Found</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>517152</v>
+          </cell>
+          <cell r="B30">
+            <v>517501</v>
+          </cell>
+          <cell r="C30">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>517167</v>
+          </cell>
+          <cell r="B31">
+            <v>517501</v>
+          </cell>
+          <cell r="C31">
+            <v>48.9</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>517172</v>
+          </cell>
+          <cell r="B32">
+            <v>517501</v>
+          </cell>
+          <cell r="C32">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>517192</v>
+          </cell>
+          <cell r="B33">
+            <v>517501</v>
+          </cell>
+          <cell r="C33">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>517193</v>
+          </cell>
+          <cell r="B34">
+            <v>517501</v>
+          </cell>
+          <cell r="C34">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>517194</v>
+          </cell>
+          <cell r="B35">
+            <v>517501</v>
+          </cell>
+          <cell r="C35">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>517198</v>
+          </cell>
+          <cell r="B36">
+            <v>517501</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Not Found</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>517213</v>
+          </cell>
+          <cell r="B37">
+            <v>517501</v>
+          </cell>
+          <cell r="C37">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>517214</v>
+          </cell>
+          <cell r="B38">
+            <v>517501</v>
+          </cell>
+          <cell r="C38">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>517234</v>
+          </cell>
+          <cell r="B39">
+            <v>517501</v>
+          </cell>
+          <cell r="C39">
+            <v>76</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>517235</v>
+          </cell>
+          <cell r="B40">
+            <v>517501</v>
+          </cell>
+          <cell r="C40">
+            <v>84</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>517236</v>
+          </cell>
+          <cell r="B41">
+            <v>517501</v>
+          </cell>
+          <cell r="C41">
+            <v>87</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>517237</v>
+          </cell>
+          <cell r="B42">
+            <v>517501</v>
+          </cell>
+          <cell r="C42">
+            <v>83</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>517247</v>
+          </cell>
+          <cell r="B43">
+            <v>517501</v>
+          </cell>
+          <cell r="C43">
+            <v>138</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>517257</v>
+          </cell>
+          <cell r="B44">
+            <v>517501</v>
+          </cell>
+          <cell r="C44">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>517280</v>
+          </cell>
+          <cell r="B45">
+            <v>517501</v>
+          </cell>
+          <cell r="C45">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>517291</v>
+          </cell>
+          <cell r="B46">
+            <v>517501</v>
+          </cell>
+          <cell r="C46">
+            <v>112</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>517297</v>
+          </cell>
+          <cell r="B47">
+            <v>517501</v>
+          </cell>
+          <cell r="C47">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>517299</v>
+          </cell>
+          <cell r="B48">
+            <v>517501</v>
+          </cell>
+          <cell r="C48">
+            <v>96</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>517302</v>
+          </cell>
+          <cell r="B49">
+            <v>517501</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Not Found</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>517305</v>
+          </cell>
+          <cell r="B50">
+            <v>517501</v>
+          </cell>
+          <cell r="C50">
+            <v>117</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>517319</v>
+          </cell>
+          <cell r="B51">
+            <v>517501</v>
+          </cell>
+          <cell r="C51">
+            <v>105</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>517325</v>
+          </cell>
+          <cell r="B52">
+            <v>517501</v>
+          </cell>
+          <cell r="C52">
+            <v>121</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>517326</v>
+          </cell>
+          <cell r="B53">
+            <v>517501</v>
+          </cell>
+          <cell r="C53">
+            <v>121</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>517327</v>
+          </cell>
+          <cell r="B54">
+            <v>517501</v>
+          </cell>
+          <cell r="C54">
+            <v>114</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>517350</v>
+          </cell>
+          <cell r="B55">
+            <v>517501</v>
+          </cell>
+          <cell r="C55">
+            <v>124</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>517351</v>
+          </cell>
+          <cell r="B56">
+            <v>517501</v>
+          </cell>
+          <cell r="C56">
+            <v>122</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>517352</v>
+          </cell>
+          <cell r="B57">
+            <v>517501</v>
+          </cell>
+          <cell r="C57">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>517370</v>
+          </cell>
+          <cell r="B58">
+            <v>517501</v>
+          </cell>
+          <cell r="C58">
+            <v>149</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>517390</v>
+          </cell>
+          <cell r="B59">
+            <v>517501</v>
+          </cell>
+          <cell r="C59">
+            <v>146</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>517391</v>
+          </cell>
+          <cell r="B60">
+            <v>517501</v>
+          </cell>
+          <cell r="C60">
+            <v>154</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>517403</v>
+          </cell>
+          <cell r="B61">
+            <v>517501</v>
+          </cell>
+          <cell r="C61">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>517408</v>
+          </cell>
+          <cell r="B62">
+            <v>517501</v>
+          </cell>
+          <cell r="C62">
+            <v>114</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>517414</v>
+          </cell>
+          <cell r="B63">
+            <v>517501</v>
+          </cell>
+          <cell r="C63">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>517415</v>
+          </cell>
+          <cell r="B64">
+            <v>517501</v>
+          </cell>
+          <cell r="C64">
+            <v>132</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>517416</v>
+          </cell>
+          <cell r="B65">
+            <v>517501</v>
+          </cell>
+          <cell r="C65">
+            <v>91</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>517417</v>
+          </cell>
+          <cell r="B66">
+            <v>517501</v>
+          </cell>
+          <cell r="C66">
+            <v>141</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>517418</v>
+          </cell>
+          <cell r="B67">
+            <v>517501</v>
+          </cell>
+          <cell r="C67">
+            <v>138</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>517419</v>
+          </cell>
+          <cell r="B68">
+            <v>517501</v>
+          </cell>
+          <cell r="C68">
+            <v>87</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>517421</v>
+          </cell>
+          <cell r="B69">
+            <v>517501</v>
+          </cell>
+          <cell r="C69">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>517422</v>
+          </cell>
+          <cell r="B70">
+            <v>517501</v>
+          </cell>
+          <cell r="C70">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>517424</v>
+          </cell>
+          <cell r="B71">
+            <v>517501</v>
+          </cell>
+          <cell r="C71">
+            <v>151</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>517425</v>
+          </cell>
+          <cell r="B72">
+            <v>517501</v>
+          </cell>
+          <cell r="C72">
+            <v>186</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>517429</v>
+          </cell>
+          <cell r="B73">
+            <v>517501</v>
+          </cell>
+          <cell r="C73">
+            <v>96</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>517432</v>
+          </cell>
+          <cell r="B74">
+            <v>517501</v>
+          </cell>
+          <cell r="C74">
+            <v>122</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>517503</v>
+          </cell>
+          <cell r="B75">
+            <v>517501</v>
+          </cell>
+          <cell r="C75">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>517505</v>
+          </cell>
+          <cell r="B76">
+            <v>517501</v>
+          </cell>
+          <cell r="C76">
+            <v>9.3000000000000007</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>517517</v>
+          </cell>
+          <cell r="B77">
+            <v>517501</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Not Found</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>517526</v>
+          </cell>
+          <cell r="B78">
+            <v>517501</v>
+          </cell>
+          <cell r="C78">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>517536</v>
+          </cell>
+          <cell r="B79">
+            <v>517501</v>
+          </cell>
+          <cell r="C79">
+            <v>47.1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>517541</v>
+          </cell>
+          <cell r="B80">
+            <v>517501</v>
+          </cell>
+          <cell r="C80">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>517561</v>
+          </cell>
+          <cell r="B81">
+            <v>517501</v>
+          </cell>
+          <cell r="C81">
+            <v>17.8</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>517569</v>
+          </cell>
+          <cell r="B82">
+            <v>517501</v>
+          </cell>
+          <cell r="C82">
+            <v>35.6</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>517571</v>
+          </cell>
+          <cell r="B83">
+            <v>517501</v>
+          </cell>
+          <cell r="C83">
+            <v>28.4</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>517581</v>
+          </cell>
+          <cell r="B84">
+            <v>517501</v>
+          </cell>
+          <cell r="C84">
+            <v>37.6</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>517583</v>
+          </cell>
+          <cell r="B85">
+            <v>517501</v>
+          </cell>
+          <cell r="C85">
+            <v>32.799999999999997</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>517584</v>
+          </cell>
+          <cell r="B86">
+            <v>517501</v>
+          </cell>
+          <cell r="C86">
+            <v>42.4</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>517586</v>
+          </cell>
+          <cell r="B87">
+            <v>517501</v>
+          </cell>
+          <cell r="C87">
+            <v>72</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>517587</v>
+          </cell>
+          <cell r="B88">
+            <v>517501</v>
+          </cell>
+          <cell r="C88">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>517588</v>
+          </cell>
+          <cell r="B89">
+            <v>517501</v>
+          </cell>
+          <cell r="C89">
+            <v>91</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>517589</v>
+          </cell>
+          <cell r="B90">
+            <v>517501</v>
+          </cell>
+          <cell r="C90">
+            <v>66</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>517591</v>
+          </cell>
+          <cell r="B91">
+            <v>517501</v>
+          </cell>
+          <cell r="C91">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>517592</v>
+          </cell>
+          <cell r="B92">
+            <v>517501</v>
+          </cell>
+          <cell r="C92">
+            <v>119</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>517599</v>
+          </cell>
+          <cell r="B93">
+            <v>517501</v>
+          </cell>
+          <cell r="C93">
+            <v>89</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>517619</v>
+          </cell>
+          <cell r="B94">
+            <v>517501</v>
+          </cell>
+          <cell r="C94">
+            <v>20.8</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>517620</v>
+          </cell>
+          <cell r="B95">
+            <v>517501</v>
+          </cell>
+          <cell r="C95">
+            <v>26.1</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>517640</v>
+          </cell>
+          <cell r="B96">
+            <v>517501</v>
+          </cell>
+          <cell r="C96">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>517641</v>
+          </cell>
+          <cell r="B97">
+            <v>517501</v>
+          </cell>
+          <cell r="C97">
+            <v>33.6</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>517642</v>
+          </cell>
+          <cell r="B98">
+            <v>517501</v>
+          </cell>
+          <cell r="C98">
+            <v>42.5</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>517643</v>
+          </cell>
+          <cell r="B99">
+            <v>517501</v>
+          </cell>
+          <cell r="C99">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>517644</v>
+          </cell>
+          <cell r="B100">
+            <v>517501</v>
+          </cell>
+          <cell r="C100">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>517582</v>
+          </cell>
+          <cell r="B101">
+            <v>517501</v>
+          </cell>
+          <cell r="C101">
+            <v>40.1</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>517401</v>
+          </cell>
+          <cell r="B102">
+            <v>517501</v>
+          </cell>
+          <cell r="C102">
+            <v>166</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>517520</v>
+          </cell>
+          <cell r="B103">
+            <v>517501</v>
+          </cell>
+          <cell r="C103">
+            <v>10.1</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>517664</v>
+          </cell>
+          <cell r="B104">
+            <v>517501</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>Not Found</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>517504</v>
+          </cell>
+          <cell r="B105">
+            <v>517501</v>
+          </cell>
+          <cell r="C105">
+            <v>21.1</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>517501</v>
+          </cell>
+          <cell r="B106">
+            <v>517501</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>Not Found</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1238,10 +2768,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K83"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1292,7 +2824,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>524305</v>
       </c>
@@ -1312,22 +2844,23 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I2" s="2">
         <v>40</v>
       </c>
       <c r="J2" s="2">
+        <f>IF(I2&gt;75,290,IF(I2&gt;50,250,IF(I2&gt;25,150,0)))</f>
         <v>150</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>524240</v>
       </c>
@@ -1347,22 +2880,23 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2">
         <v>95</v>
       </c>
       <c r="J3" s="2">
-        <v>280</v>
+        <f t="shared" ref="J3:J66" si="0">IF(I3&gt;75,290,IF(I3&gt;50,250,IF(I3&gt;25,150,0)))</f>
+        <v>290</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>524152</v>
       </c>
@@ -1382,22 +2916,23 @@
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2">
         <v>95</v>
       </c>
       <c r="J4" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>524001</v>
       </c>
@@ -1417,22 +2952,23 @@
         <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I5" s="2">
         <v>15</v>
       </c>
       <c r="J5" s="2">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>524201</v>
       </c>
@@ -1452,22 +2988,23 @@
         <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2">
         <v>90</v>
       </c>
       <c r="J6" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>524202</v>
       </c>
@@ -1487,22 +3024,23 @@
         <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2">
         <v>90</v>
       </c>
       <c r="J7" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>524316</v>
       </c>
@@ -1522,22 +3060,23 @@
         <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I8" s="2">
         <v>30</v>
       </c>
       <c r="J8" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>524344</v>
       </c>
@@ -1557,22 +3096,23 @@
         <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2">
         <v>90</v>
       </c>
       <c r="J9" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>524313</v>
       </c>
@@ -1592,22 +3132,23 @@
         <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2">
-        <v>47.3</v>
+        <v>52.5</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>524230</v>
       </c>
@@ -1627,16 +3168,17 @@
         <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2">
         <v>90</v>
       </c>
       <c r="J11" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>121</v>
@@ -1662,13 +3204,13 @@
         <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I12" s="2">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="J12" s="2">
         <v>100</v>
@@ -1677,7 +3219,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>524003</v>
       </c>
@@ -1697,16 +3239,17 @@
         <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I13" s="2">
         <v>15</v>
       </c>
       <c r="J13" s="2">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>121</v>
@@ -1732,13 +3275,13 @@
         <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I14" s="2">
-        <v>15</v>
+        <v>25.3</v>
       </c>
       <c r="J14" s="2">
         <v>100</v>
@@ -1767,22 +3310,23 @@
         <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I15" s="2">
         <v>15</v>
       </c>
       <c r="J15" s="2">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>524006</v>
       </c>
@@ -1802,22 +3346,23 @@
         <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I16" s="2">
         <v>27.5</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>524137</v>
       </c>
@@ -1837,22 +3382,23 @@
         <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I17" s="2">
         <v>30</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>524142</v>
       </c>
@@ -1872,22 +3418,23 @@
         <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I18" s="2">
         <v>76.5</v>
       </c>
       <c r="J18" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>524203</v>
       </c>
@@ -1907,22 +3454,23 @@
         <v>63</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I19" s="2">
         <v>85</v>
       </c>
       <c r="J19" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>524221</v>
       </c>
@@ -1942,22 +3490,23 @@
         <v>64</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I20" s="2">
         <v>115</v>
       </c>
       <c r="J20" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>524222</v>
       </c>
@@ -1977,22 +3526,23 @@
         <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I21" s="2">
         <v>110</v>
       </c>
       <c r="J21" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>524223</v>
       </c>
@@ -2012,22 +3562,23 @@
         <v>66</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I22" s="2">
         <v>80</v>
       </c>
       <c r="J22" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>524224</v>
       </c>
@@ -2047,22 +3598,23 @@
         <v>67</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I23" s="2">
         <v>95</v>
       </c>
       <c r="J23" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>524226</v>
       </c>
@@ -2082,22 +3634,23 @@
         <v>68</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I24" s="2">
         <v>140</v>
       </c>
       <c r="J24" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>524227</v>
       </c>
@@ -2117,22 +3670,23 @@
         <v>69</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="2">
         <v>145</v>
       </c>
       <c r="J25" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>524228</v>
       </c>
@@ -2152,22 +3706,23 @@
         <v>49</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I26" s="2">
         <v>100</v>
       </c>
       <c r="J26" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>524234</v>
       </c>
@@ -2187,22 +3742,23 @@
         <v>70</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I27" s="2">
         <v>100</v>
       </c>
       <c r="J27" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>524236</v>
       </c>
@@ -2222,22 +3778,23 @@
         <v>71</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I28" s="2">
         <v>145</v>
       </c>
       <c r="J28" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>524302</v>
       </c>
@@ -2257,22 +3814,23 @@
         <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I29" s="2">
         <v>107.5</v>
       </c>
       <c r="J29" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>524303</v>
       </c>
@@ -2292,22 +3850,23 @@
         <v>73</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I30" s="2">
         <v>95</v>
       </c>
       <c r="J30" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>524304</v>
       </c>
@@ -2327,22 +3886,23 @@
         <v>74</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I31" s="2">
         <v>80</v>
       </c>
       <c r="J31" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>524306</v>
       </c>
@@ -2362,22 +3922,23 @@
         <v>75</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I32" s="2">
         <v>27.5</v>
       </c>
       <c r="J32" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>524307</v>
       </c>
@@ -2397,22 +3958,23 @@
         <v>76</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I33" s="2">
         <v>100</v>
       </c>
       <c r="J33" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>524309</v>
       </c>
@@ -2432,22 +3994,23 @@
         <v>77</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I34" s="2">
         <v>51.5</v>
       </c>
       <c r="J34" s="2">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>524311</v>
       </c>
@@ -2467,22 +4030,23 @@
         <v>78</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I35" s="2">
         <v>26.5</v>
       </c>
       <c r="J35" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>524312</v>
       </c>
@@ -2502,22 +4066,23 @@
         <v>79</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I36" s="2">
         <v>115</v>
       </c>
       <c r="J36" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>524315</v>
       </c>
@@ -2537,22 +4102,23 @@
         <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I37" s="2">
         <v>55</v>
       </c>
       <c r="J37" s="2">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>524317</v>
       </c>
@@ -2572,22 +4138,23 @@
         <v>81</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I38" s="2">
         <v>40</v>
       </c>
       <c r="J38" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>524322</v>
       </c>
@@ -2607,22 +4174,23 @@
         <v>82</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I39" s="2">
         <v>80</v>
       </c>
       <c r="J39" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>524323</v>
       </c>
@@ -2642,22 +4210,23 @@
         <v>83</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I40" s="2">
         <v>35</v>
       </c>
       <c r="J40" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>524324</v>
       </c>
@@ -2677,22 +4246,23 @@
         <v>84</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I41" s="2">
         <v>125</v>
       </c>
       <c r="J41" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>524333</v>
       </c>
@@ -2712,22 +4282,23 @@
         <v>85</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I42" s="2">
         <v>53.5</v>
       </c>
       <c r="J42" s="2">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>524343</v>
       </c>
@@ -2747,22 +4318,23 @@
         <v>86</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I43" s="2">
         <v>85</v>
       </c>
       <c r="J43" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>524345</v>
       </c>
@@ -2782,22 +4354,23 @@
         <v>87</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I44" s="2">
         <v>55</v>
       </c>
       <c r="J44" s="2">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>524346</v>
       </c>
@@ -2817,22 +4390,23 @@
         <v>88</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I45" s="2">
         <v>52.5</v>
       </c>
       <c r="J45" s="2">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>524366</v>
       </c>
@@ -2852,22 +4426,23 @@
         <v>89</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I46" s="2">
         <v>35</v>
       </c>
       <c r="J46" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>524407</v>
       </c>
@@ -2887,22 +4462,23 @@
         <v>94</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I47" s="2">
         <v>76.5</v>
       </c>
       <c r="J47" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>524408</v>
       </c>
@@ -2922,22 +4498,23 @@
         <v>95</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I48" s="2">
         <v>77.5</v>
       </c>
       <c r="J48" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>524409</v>
       </c>
@@ -2957,22 +4534,23 @@
         <v>96</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I49" s="2">
         <v>77.5</v>
       </c>
       <c r="J49" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>524308</v>
       </c>
@@ -2992,22 +4570,23 @@
         <v>103</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I50" s="2">
         <v>53.5</v>
       </c>
       <c r="J50" s="2">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>524310</v>
       </c>
@@ -3027,22 +4606,23 @@
         <v>30</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I51" s="2">
         <v>140</v>
       </c>
       <c r="J51" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>524225</v>
       </c>
@@ -3062,22 +4642,23 @@
         <v>106</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I52" s="2">
         <v>77.5</v>
       </c>
       <c r="J52" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>524301</v>
       </c>
@@ -3097,22 +4678,23 @@
         <v>108</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I53" s="2">
         <v>85</v>
       </c>
       <c r="J53" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>524321</v>
       </c>
@@ -3132,22 +4714,23 @@
         <v>109</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I54" s="2">
         <v>40</v>
       </c>
       <c r="J54" s="2">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>524218</v>
       </c>
@@ -3167,22 +4750,23 @@
         <v>115</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I55" s="2">
         <v>55</v>
       </c>
       <c r="J55" s="2">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>524341</v>
       </c>
@@ -3202,22 +4786,23 @@
         <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I56" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="J56" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>524412</v>
       </c>
@@ -3237,22 +4822,23 @@
         <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I57" s="2">
         <v>90</v>
       </c>
       <c r="J57" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>524403</v>
       </c>
@@ -3272,22 +4858,23 @@
         <v>22</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I58" s="2">
         <v>110</v>
       </c>
       <c r="J58" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>524134</v>
       </c>
@@ -3307,22 +4894,23 @@
         <v>26</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I59" s="2">
         <v>80</v>
       </c>
       <c r="J59" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>524410</v>
       </c>
@@ -3342,22 +4930,23 @@
         <v>30</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I60" s="2">
         <v>90</v>
       </c>
       <c r="J60" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>524126</v>
       </c>
@@ -3377,22 +4966,23 @@
         <v>42</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I61" s="2">
         <v>80</v>
       </c>
       <c r="J61" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>524101</v>
       </c>
@@ -3412,22 +5002,23 @@
         <v>50</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I62" s="2">
         <v>98</v>
       </c>
       <c r="J62" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>524102</v>
       </c>
@@ -3447,22 +5038,23 @@
         <v>51</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I63" s="2">
         <v>98</v>
       </c>
       <c r="J63" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>524119</v>
       </c>
@@ -3482,22 +5074,23 @@
         <v>52</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I64" s="2">
         <v>120</v>
       </c>
       <c r="J64" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>524120</v>
       </c>
@@ -3517,22 +5110,23 @@
         <v>53</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I65" s="2">
         <v>110</v>
       </c>
       <c r="J65" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>524121</v>
       </c>
@@ -3552,22 +5146,23 @@
         <v>54</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I66" s="2">
         <v>85</v>
       </c>
       <c r="J66" s="2">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>524123</v>
       </c>
@@ -3587,22 +5182,23 @@
         <v>55</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I67" s="2">
         <v>94</v>
       </c>
       <c r="J67" s="2">
-        <v>280</v>
+        <f t="shared" ref="J67:J130" si="1">IF(I67&gt;75,290,IF(I67&gt;50,250,IF(I67&gt;25,150,0)))</f>
+        <v>290</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>524124</v>
       </c>
@@ -3622,22 +5218,23 @@
         <v>56</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I68" s="2">
         <v>108.3</v>
       </c>
       <c r="J68" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>290</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>524127</v>
       </c>
@@ -3657,22 +5254,23 @@
         <v>57</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I69" s="2">
         <v>89.9</v>
       </c>
       <c r="J69" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>290</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>524129</v>
       </c>
@@ -3692,22 +5290,23 @@
         <v>58</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I70" s="2">
         <v>52.6</v>
       </c>
       <c r="J70" s="2">
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>524131</v>
       </c>
@@ -3727,22 +5326,23 @@
         <v>59</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I71" s="2">
         <v>77.900000000000006</v>
       </c>
       <c r="J71" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>290</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>524132</v>
       </c>
@@ -3762,22 +5362,23 @@
         <v>60</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I72" s="2">
         <v>69.5</v>
       </c>
       <c r="J72" s="2">
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>524401</v>
       </c>
@@ -3797,22 +5398,23 @@
         <v>90</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I73" s="2">
         <v>73.099999999999994</v>
       </c>
       <c r="J73" s="2">
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>524402</v>
       </c>
@@ -3832,22 +5434,23 @@
         <v>91</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I74" s="2">
         <v>87.5</v>
       </c>
       <c r="J74" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>290</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>524404</v>
       </c>
@@ -3867,22 +5470,23 @@
         <v>92</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I75" s="2">
         <v>68.599999999999994</v>
       </c>
       <c r="J75" s="2">
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>524405</v>
       </c>
@@ -3902,22 +5506,23 @@
         <v>93</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I76" s="2">
         <v>98</v>
       </c>
       <c r="J76" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>290</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>524411</v>
       </c>
@@ -3937,22 +5542,23 @@
         <v>97</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I77" s="2">
         <v>108.3</v>
       </c>
       <c r="J77" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>290</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>524414</v>
       </c>
@@ -3972,22 +5578,23 @@
         <v>98</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I78" s="2">
         <v>88.6</v>
       </c>
       <c r="J78" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>290</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>524421</v>
       </c>
@@ -4007,22 +5614,23 @@
         <v>99</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I79" s="2">
         <v>68.7</v>
       </c>
       <c r="J79" s="2">
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>524441</v>
       </c>
@@ -4042,22 +5650,23 @@
         <v>100</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I80" s="2">
         <v>105</v>
       </c>
       <c r="J80" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>290</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>524624</v>
       </c>
@@ -4077,22 +5686,23 @@
         <v>101</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I81" s="2">
         <v>105</v>
       </c>
       <c r="J81" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>290</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>524415</v>
       </c>
@@ -4112,22 +5722,23 @@
         <v>111</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I82" s="2">
         <v>95.8</v>
       </c>
       <c r="J82" s="2">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>290</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>524320</v>
       </c>
@@ -4147,23 +5758,3594 @@
         <v>113</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I83" s="2">
         <v>55.3</v>
       </c>
       <c r="J83" s="2">
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>121</v>
       </c>
     </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>517502</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="2">
+        <f>VLOOKUP(A84,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>517506</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="2">
+        <v>30</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>517507</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="2">
+        <f>VLOOKUP(A86,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>517590</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="2">
+        <f>VLOOKUP(A87,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>47.5</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>517551</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="2">
+        <f>VLOOKUP(A88,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>25.7</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>517277</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="2">
+        <f>VLOOKUP(A89,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>85</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>517001</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="2">
+        <f>VLOOKUP(A90,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>517423</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="2">
+        <f>VLOOKUP(A91,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>172</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>517613</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="2">
+        <v>30</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>515412</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="2">
+        <v>30</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>517002</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="2">
+        <f>VLOOKUP(A94,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>517003</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="2">
+        <f>VLOOKUP(A95,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>68</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>517004</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="2">
+        <f>VLOOKUP(A96,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>517101</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="2">
+        <f>VLOOKUP(A97,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>15.4</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>517102</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="2">
+        <f>VLOOKUP(A98,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>517112</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="2">
+        <v>45</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>517113</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="2">
+        <f>VLOOKUP(A100,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>517123</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="2">
+        <f>VLOOKUP(A101,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>517124</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="2">
+        <f>VLOOKUP(A102,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>517125</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="2">
+        <f>VLOOKUP(A103,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>63</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>517126</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="2">
+        <f>VLOOKUP(A104,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="J104" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>517127</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="2">
+        <f>VLOOKUP(A105,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>64</v>
+      </c>
+      <c r="J105" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>517128</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="2">
+        <f>VLOOKUP(A106,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>84</v>
+      </c>
+      <c r="J106" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>517129</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="2">
+        <f>VLOOKUP(A107,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>76</v>
+      </c>
+      <c r="J107" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>517130</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="2">
+        <f>VLOOKUP(A108,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>517131</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="2">
+        <f>VLOOKUP(A109,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>64</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>517132</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="2">
+        <f>VLOOKUP(A110,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>517150</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>517152</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="2">
+        <f>VLOOKUP(A112,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="J112" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>517167</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="2">
+        <f>VLOOKUP(A113,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>48.9</v>
+      </c>
+      <c r="J113" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>517172</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="2">
+        <f>VLOOKUP(A114,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="J114" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>517192</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="2">
+        <f>VLOOKUP(A115,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="J115" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>517193</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="2">
+        <f>VLOOKUP(A116,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="J116" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>517194</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="2">
+        <f>VLOOKUP(A117,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="J117" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>517198</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="J118" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>517213</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="2">
+        <f>VLOOKUP(A119,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>81</v>
+      </c>
+      <c r="J119" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>517214</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="2">
+        <f>VLOOKUP(A120,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="J120" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>517234</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="2">
+        <f>VLOOKUP(A121,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>76</v>
+      </c>
+      <c r="J121" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>517235</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="2">
+        <f>VLOOKUP(A122,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>84</v>
+      </c>
+      <c r="J122" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>517236</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="2">
+        <f>VLOOKUP(A123,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="J123" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>517237</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="2">
+        <f>VLOOKUP(A124,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="J124" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>517247</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="2">
+        <f>VLOOKUP(A125,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="J125" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>517257</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="2">
+        <f>VLOOKUP(A126,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>99</v>
+      </c>
+      <c r="J126" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>517280</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="2">
+        <f>VLOOKUP(A127,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="J127" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>517291</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="2">
+        <f>VLOOKUP(A128,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>112</v>
+      </c>
+      <c r="J128" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>517297</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="2">
+        <f>VLOOKUP(A129,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>110</v>
+      </c>
+      <c r="J129" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>517299</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="2">
+        <f>VLOOKUP(A130,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>96</v>
+      </c>
+      <c r="J130" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>517302</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="2">
+        <v>139</v>
+      </c>
+      <c r="J131" s="2">
+        <f t="shared" ref="J131:J188" si="2">IF(I131&gt;75,290,IF(I131&gt;50,250,IF(I131&gt;25,150,0)))</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>517305</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="2">
+        <f>VLOOKUP(A132,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="J132" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>517319</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="2">
+        <f>VLOOKUP(A133,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="J133" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>517325</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="2">
+        <f>VLOOKUP(A134,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="J134" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>517326</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="2">
+        <f>VLOOKUP(A135,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="J135" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>517327</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="2">
+        <f>VLOOKUP(A136,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="J136" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>517350</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="2">
+        <f>VLOOKUP(A137,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="J137" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>517351</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="2">
+        <f>VLOOKUP(A138,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="J138" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>517352</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="2">
+        <f>VLOOKUP(A139,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="J139" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>517370</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C140" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="2">
+        <f>VLOOKUP(A140,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>149</v>
+      </c>
+      <c r="J140" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>517390</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C141" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="2">
+        <f>VLOOKUP(A141,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>146</v>
+      </c>
+      <c r="J141" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>517391</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C142" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="2">
+        <f>VLOOKUP(A142,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>154</v>
+      </c>
+      <c r="J142" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>517403</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C143" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="2">
+        <f>VLOOKUP(A143,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>99</v>
+      </c>
+      <c r="J143" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>517408</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C144" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="2">
+        <f>VLOOKUP(A144,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="J144" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>517414</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="2">
+        <f>VLOOKUP(A145,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="J145" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>517415</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="2">
+        <f>VLOOKUP(A146,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>132</v>
+      </c>
+      <c r="J146" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>517416</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="2">
+        <f>VLOOKUP(A147,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>91</v>
+      </c>
+      <c r="J147" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>517417</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="2">
+        <f>VLOOKUP(A148,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>141</v>
+      </c>
+      <c r="J148" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>517418</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C149" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="2">
+        <f>VLOOKUP(A149,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="J149" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>517419</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C150" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="2">
+        <f>VLOOKUP(A150,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>87</v>
+      </c>
+      <c r="J150" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>517421</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="2">
+        <f>VLOOKUP(A151,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>81</v>
+      </c>
+      <c r="J151" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>517422</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="2">
+        <f>VLOOKUP(A152,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>81</v>
+      </c>
+      <c r="J152" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>517424</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="2">
+        <f>VLOOKUP(A153,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>151</v>
+      </c>
+      <c r="J153" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>517425</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C154" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="2">
+        <f>VLOOKUP(A154,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>186</v>
+      </c>
+      <c r="J154" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>517429</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C155" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="2">
+        <f>VLOOKUP(A155,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>96</v>
+      </c>
+      <c r="J155" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>517432</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C156" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="2">
+        <f>VLOOKUP(A156,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="J156" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>517503</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C157" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="2">
+        <f>VLOOKUP(A157,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="J157" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>517505</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C158" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" s="2">
+        <f>VLOOKUP(A158,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J158" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>517517</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C159" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="2">
+        <v>11</v>
+      </c>
+      <c r="J159" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>517526</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" s="2">
+        <f>VLOOKUP(A160,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="J160" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>517536</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C161" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="2">
+        <f>VLOOKUP(A161,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>47.1</v>
+      </c>
+      <c r="J161" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>517541</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="2">
+        <f>VLOOKUP(A162,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="J162" s="2">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>517561</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C163" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163" s="2">
+        <f>VLOOKUP(A163,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>17.8</v>
+      </c>
+      <c r="J163" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>517569</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="2">
+        <f>VLOOKUP(A164,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>35.6</v>
+      </c>
+      <c r="J164" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>517571</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="2">
+        <f>VLOOKUP(A165,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>28.4</v>
+      </c>
+      <c r="J165" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>517581</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="2">
+        <f>VLOOKUP(A166,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>37.6</v>
+      </c>
+      <c r="J166" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>517583</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="2">
+        <f>VLOOKUP(A167,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J167" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>517584</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="2">
+        <f>VLOOKUP(A168,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>42.4</v>
+      </c>
+      <c r="J168" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>517586</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="2">
+        <f>VLOOKUP(A169,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>72</v>
+      </c>
+      <c r="J169" s="2">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>517587</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="2">
+        <f>VLOOKUP(A170,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="J170" s="2">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>517588</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="2">
+        <f>VLOOKUP(A171,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>91</v>
+      </c>
+      <c r="J171" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>517589</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="2">
+        <f>VLOOKUP(A172,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>66</v>
+      </c>
+      <c r="J172" s="2">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>517591</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="2">
+        <f>VLOOKUP(A173,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J173" s="2">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>517592</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="2">
+        <f>VLOOKUP(A174,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="J174" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>517599</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="2">
+        <f>VLOOKUP(A175,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="J175" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>517619</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" s="2">
+        <f>VLOOKUP(A176,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>20.8</v>
+      </c>
+      <c r="J176" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>517620</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I177" s="2">
+        <f>VLOOKUP(A177,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>26.1</v>
+      </c>
+      <c r="J177" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>517640</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" s="2">
+        <f>VLOOKUP(A178,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>69</v>
+      </c>
+      <c r="J178" s="2">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>517641</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" s="2">
+        <f>VLOOKUP(A179,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>33.6</v>
+      </c>
+      <c r="J179" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>517642</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="2">
+        <f>VLOOKUP(A180,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>42.5</v>
+      </c>
+      <c r="J180" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>517643</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" s="2">
+        <f>VLOOKUP(A181,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="J181" s="2">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>517644</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I182" s="2">
+        <f>VLOOKUP(A182,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>64</v>
+      </c>
+      <c r="J182" s="2">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>517582</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I183" s="2">
+        <f>VLOOKUP(A183,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>40.1</v>
+      </c>
+      <c r="J183" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>517401</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C184" s="2">
+        <v>152540</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I184" s="2">
+        <f>VLOOKUP(A184,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>166</v>
+      </c>
+      <c r="J184" s="2">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>517520</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I185" s="2">
+        <f>VLOOKUP(A185,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
+        <v>10.1</v>
+      </c>
+      <c r="J185" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>517664</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I186" s="2">
+        <v>48</v>
+      </c>
+      <c r="J186" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>517504</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C187" s="2">
+        <v>153373</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I187" s="2">
+        <v>40</v>
+      </c>
+      <c r="J187" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>517501</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="2">
+        <v>121662</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I188" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J188" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K83"/>
+  <autoFilter ref="A1:K188">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AL MADINA ENTERPRISES"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4173,7 +9355,7 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J83"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Voltas_non_standard/Mysql/Area_mapping.xlsx
+++ b/Voltas_non_standard/Mysql/Area_mapping.xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="Nellore mapping" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Price Structure" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nellore mapping'!$A$1:$K$188</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="254">
   <si>
     <t>Franchisee Name</t>
   </si>
@@ -747,12 +748,57 @@
   </si>
   <si>
     <t>Akkarampalli (Post)</t>
+  </si>
+  <si>
+    <t>Zero IF KMS &lt; 25</t>
+  </si>
+  <si>
+    <t>150 if KMS Between 25 to 50</t>
+  </si>
+  <si>
+    <t>250 if KMS between 50 to 75</t>
+  </si>
+  <si>
+    <t>350 if KMS &gt; 75</t>
+  </si>
+  <si>
+    <t>Only UP</t>
+  </si>
+  <si>
+    <t>If Calculated as Up + Down</t>
+  </si>
+  <si>
+    <t>Only Up</t>
+  </si>
+  <si>
+    <t>Amt</t>
+  </si>
+  <si>
+    <t>Up + Down  KMS</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>&lt; 50</t>
+  </si>
+  <si>
+    <t>Between 50 to 100</t>
+  </si>
+  <si>
+    <t>Between 100 to 150</t>
+  </si>
+  <si>
+    <t>&gt; 150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1076,7 +1122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1206,6 +1252,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1251,12 +1306,27 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2496,10 +2566,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2772,7 +2842,7 @@
   <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,7 +2930,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>524240</v>
       </c>
@@ -3112,7 +3182,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>524313</v>
       </c>
@@ -3148,7 +3218,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>524230</v>
       </c>
@@ -3506,7 +3576,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>524222</v>
       </c>
@@ -3578,7 +3648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>524224</v>
       </c>
@@ -3614,7 +3684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>524226</v>
       </c>
@@ -3722,7 +3792,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>524234</v>
       </c>
@@ -3758,7 +3828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>524236</v>
       </c>
@@ -3794,7 +3864,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>524302</v>
       </c>
@@ -3830,7 +3900,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>524303</v>
       </c>
@@ -3866,7 +3936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>524304</v>
       </c>
@@ -3938,7 +4008,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>524307</v>
       </c>
@@ -3974,7 +4044,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>524309</v>
       </c>
@@ -4046,7 +4116,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>524312</v>
       </c>
@@ -4118,7 +4188,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>524317</v>
       </c>
@@ -4154,7 +4224,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>524322</v>
       </c>
@@ -4262,7 +4332,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>524333</v>
       </c>
@@ -4298,7 +4368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>524343</v>
       </c>
@@ -4334,7 +4404,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>524345</v>
       </c>
@@ -4370,7 +4440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>524346</v>
       </c>
@@ -4442,7 +4512,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>524407</v>
       </c>
@@ -4478,7 +4548,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>524408</v>
       </c>
@@ -4514,7 +4584,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>524409</v>
       </c>
@@ -4550,7 +4620,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>524308</v>
       </c>
@@ -4586,7 +4656,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>524310</v>
       </c>
@@ -4622,7 +4692,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>524225</v>
       </c>
@@ -4658,7 +4728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>524301</v>
       </c>
@@ -4694,7 +4764,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>524321</v>
       </c>
@@ -9338,11 +9408,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="AL MADINA ENTERPRISES"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9354,7 +9419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -12032,4 +12097,262 @@
   <autoFilter ref="A1:J83"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>524001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>153277</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>524316</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>152401</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>524223</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>153277</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2">
+        <v>350</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>524304</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>153277</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2">
+        <v>80</v>
+      </c>
+      <c r="I5" s="2">
+        <v>250</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="7">
+        <v>150</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="7">
+        <v>250</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="7">
+        <v>350</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Voltas_non_standard/Mysql/Area_mapping.xlsx
+++ b/Voltas_non_standard/Mysql/Area_mapping.xlsx
@@ -12,23 +12,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Nellore mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Price Structure" sheetId="3" r:id="rId3"/>
+    <sheet name="Area_Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Price Structure" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nellore mapping'!$A$1:$K$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Area_Mapping!$A$1:$K$188</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="253">
   <si>
     <t>Franchisee Name</t>
   </si>
@@ -406,9 +404,6 @@
   </si>
   <si>
     <t>Non Standard Amount</t>
-  </si>
-  <si>
-    <t>Brand</t>
   </si>
   <si>
     <t>Chittoor</t>
@@ -1320,14 +1315,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2566,10 +2561,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5855,10 +5850,10 @@
         <v>121662</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>69</v>
@@ -5889,13 +5884,13 @@
         <v>121662</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>13</v>
@@ -5916,19 +5911,19 @@
         <v>517507</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2">
         <v>152966</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>13</v>
@@ -5956,13 +5951,13 @@
         <v>121662</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>13</v>
@@ -5990,13 +5985,13 @@
         <v>121662</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>13</v>
@@ -6018,19 +6013,19 @@
         <v>517277</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89" s="2">
         <v>153373</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>13</v>
@@ -6052,19 +6047,19 @@
         <v>517001</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" s="2">
         <v>152540</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>13</v>
@@ -6086,19 +6081,19 @@
         <v>517423</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C91" s="2">
         <v>152540</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>13</v>
@@ -6120,19 +6115,19 @@
         <v>517613</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2">
         <v>152966</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>13</v>
@@ -6153,19 +6148,19 @@
         <v>515412</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2">
         <v>152540</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>13</v>
@@ -6186,19 +6181,19 @@
         <v>517002</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2">
         <v>152540</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>13</v>
@@ -6220,19 +6215,19 @@
         <v>517003</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2">
         <v>152540</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>13</v>
@@ -6254,19 +6249,19 @@
         <v>517004</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2">
         <v>152540</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>13</v>
@@ -6288,19 +6283,19 @@
         <v>517101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2">
         <v>152966</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>13</v>
@@ -6322,19 +6317,19 @@
         <v>517102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2">
         <v>153373</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>13</v>
@@ -6356,19 +6351,19 @@
         <v>517112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2">
         <v>152966</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>13</v>
@@ -6389,19 +6384,19 @@
         <v>517113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C100" s="2">
         <v>153373</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>13</v>
@@ -6423,19 +6418,19 @@
         <v>517123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101" s="2">
         <v>153373</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>13</v>
@@ -6457,19 +6452,19 @@
         <v>517124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2">
         <v>152540</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>13</v>
@@ -6491,19 +6486,19 @@
         <v>517125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2">
         <v>152540</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>13</v>
@@ -6525,19 +6520,19 @@
         <v>517126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2">
         <v>152540</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>13</v>
@@ -6559,19 +6554,19 @@
         <v>517127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2">
         <v>152540</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>13</v>
@@ -6593,19 +6588,19 @@
         <v>517128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2">
         <v>152540</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>13</v>
@@ -6627,19 +6622,19 @@
         <v>517129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="2">
         <v>152540</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>13</v>
@@ -6661,19 +6656,19 @@
         <v>517130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2">
         <v>152540</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>13</v>
@@ -6695,19 +6690,19 @@
         <v>517131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C109" s="2">
         <v>152540</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>13</v>
@@ -6729,19 +6724,19 @@
         <v>517132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C110" s="2">
         <v>152540</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>13</v>
@@ -6763,19 +6758,19 @@
         <v>517150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C111" s="2">
         <v>152540</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>13</v>
@@ -6796,19 +6791,19 @@
         <v>517152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C112" s="2">
         <v>153373</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>13</v>
@@ -6830,19 +6825,19 @@
         <v>517167</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C113" s="2">
         <v>152540</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>13</v>
@@ -6864,19 +6859,19 @@
         <v>517172</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2">
         <v>153373</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>13</v>
@@ -6898,19 +6893,19 @@
         <v>517192</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C115" s="2">
         <v>153373</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>13</v>
@@ -6932,19 +6927,19 @@
         <v>517193</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" s="2">
         <v>153373</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>13</v>
@@ -6966,19 +6961,19 @@
         <v>517194</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C117" s="2">
         <v>153373</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>13</v>
@@ -7000,19 +6995,19 @@
         <v>517198</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" s="2">
         <v>152966</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>13</v>
@@ -7033,19 +7028,19 @@
         <v>517213</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" s="2">
         <v>153373</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>13</v>
@@ -7067,19 +7062,19 @@
         <v>517214</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C120" s="2">
         <v>153373</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>13</v>
@@ -7101,19 +7096,19 @@
         <v>517234</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121" s="2">
         <v>153373</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>13</v>
@@ -7135,19 +7130,19 @@
         <v>517235</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="2">
         <v>153373</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>13</v>
@@ -7169,19 +7164,19 @@
         <v>517236</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="2">
         <v>153373</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>13</v>
@@ -7203,19 +7198,19 @@
         <v>517237</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2">
         <v>153373</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>13</v>
@@ -7237,19 +7232,19 @@
         <v>517247</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="2">
         <v>153373</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>13</v>
@@ -7271,19 +7266,19 @@
         <v>517257</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" s="2">
         <v>153373</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>13</v>
@@ -7305,19 +7300,19 @@
         <v>517280</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="2">
         <v>153373</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>13</v>
@@ -7339,19 +7334,19 @@
         <v>517291</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="2">
         <v>153373</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>13</v>
@@ -7373,19 +7368,19 @@
         <v>517297</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2">
         <v>153373</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>13</v>
@@ -7407,19 +7402,19 @@
         <v>517299</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C130" s="2">
         <v>153373</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>13</v>
@@ -7441,19 +7436,19 @@
         <v>517302</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131" s="2">
         <v>152966</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>13</v>
@@ -7474,19 +7469,19 @@
         <v>517305</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" s="2">
         <v>153373</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>13</v>
@@ -7508,19 +7503,19 @@
         <v>517319</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="2">
         <v>153373</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>13</v>
@@ -7542,19 +7537,19 @@
         <v>517325</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C134" s="2">
         <v>153373</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>13</v>
@@ -7576,19 +7571,19 @@
         <v>517326</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="2">
         <v>153373</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>13</v>
@@ -7610,19 +7605,19 @@
         <v>517327</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2">
         <v>152966</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>13</v>
@@ -7644,19 +7639,19 @@
         <v>517350</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137" s="2">
         <v>153373</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>13</v>
@@ -7678,19 +7673,19 @@
         <v>517351</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C138" s="2">
         <v>153373</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>13</v>
@@ -7712,19 +7707,19 @@
         <v>517352</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139" s="2">
         <v>153373</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>13</v>
@@ -7746,19 +7741,19 @@
         <v>517370</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140" s="2">
         <v>153373</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>13</v>
@@ -7780,19 +7775,19 @@
         <v>517390</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="2">
         <v>153373</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>13</v>
@@ -7814,19 +7809,19 @@
         <v>517391</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142" s="2">
         <v>153373</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>13</v>
@@ -7848,19 +7843,19 @@
         <v>517403</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C143" s="2">
         <v>152540</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>13</v>
@@ -7882,19 +7877,19 @@
         <v>517408</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C144" s="2">
         <v>152540</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>13</v>
@@ -7916,19 +7911,19 @@
         <v>517414</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C145" s="2">
         <v>152540</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>13</v>
@@ -7950,19 +7945,19 @@
         <v>517415</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="2">
         <v>152540</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>13</v>
@@ -7984,19 +7979,19 @@
         <v>517416</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2">
         <v>152540</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>13</v>
@@ -8018,19 +8013,19 @@
         <v>517417</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C148" s="2">
         <v>152540</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>13</v>
@@ -8052,19 +8047,19 @@
         <v>517418</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C149" s="2">
         <v>153373</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>13</v>
@@ -8086,19 +8081,19 @@
         <v>517419</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C150" s="2">
         <v>152540</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>13</v>
@@ -8120,19 +8115,19 @@
         <v>517421</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C151" s="2">
         <v>152540</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>13</v>
@@ -8154,19 +8149,19 @@
         <v>517422</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C152" s="2">
         <v>152540</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>13</v>
@@ -8188,19 +8183,19 @@
         <v>517424</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C153" s="2">
         <v>152540</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>13</v>
@@ -8222,19 +8217,19 @@
         <v>517425</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2">
         <v>152540</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>13</v>
@@ -8256,19 +8251,19 @@
         <v>517429</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C155" s="2">
         <v>152540</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>13</v>
@@ -8290,19 +8285,19 @@
         <v>517432</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C156" s="2">
         <v>152540</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>13</v>
@@ -8324,19 +8319,19 @@
         <v>517503</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C157" s="2">
         <v>152966</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>13</v>
@@ -8358,19 +8353,19 @@
         <v>517505</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C158" s="2">
         <v>152966</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>13</v>
@@ -8392,19 +8387,19 @@
         <v>517517</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C159" s="2">
         <v>152966</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>13</v>
@@ -8431,13 +8426,13 @@
         <v>121662</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>13</v>
@@ -8459,19 +8454,19 @@
         <v>517536</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2">
         <v>153373</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>13</v>
@@ -8499,13 +8494,13 @@
         <v>121662</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>13</v>
@@ -8527,19 +8522,19 @@
         <v>517561</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C163" s="2">
         <v>152966</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>13</v>
@@ -8567,13 +8562,13 @@
         <v>121662</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>13</v>
@@ -8601,13 +8596,13 @@
         <v>121662</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>13</v>
@@ -8635,13 +8630,13 @@
         <v>121662</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>13</v>
@@ -8669,13 +8664,13 @@
         <v>121662</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>13</v>
@@ -8703,13 +8698,13 @@
         <v>121662</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>13</v>
@@ -8737,13 +8732,13 @@
         <v>121662</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>13</v>
@@ -8771,13 +8766,13 @@
         <v>121662</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>13</v>
@@ -8805,13 +8800,13 @@
         <v>121662</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>13</v>
@@ -8839,13 +8834,13 @@
         <v>121662</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>13</v>
@@ -8873,13 +8868,13 @@
         <v>121662</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>13</v>
@@ -8907,13 +8902,13 @@
         <v>121662</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>13</v>
@@ -8941,13 +8936,13 @@
         <v>121662</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>13</v>
@@ -8975,13 +8970,13 @@
         <v>121662</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>13</v>
@@ -9009,13 +9004,13 @@
         <v>121662</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>13</v>
@@ -9043,13 +9038,13 @@
         <v>121662</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>13</v>
@@ -9077,13 +9072,13 @@
         <v>121662</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>13</v>
@@ -9111,13 +9106,13 @@
         <v>121662</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>13</v>
@@ -9145,13 +9140,13 @@
         <v>121662</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>13</v>
@@ -9179,13 +9174,13 @@
         <v>121662</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>13</v>
@@ -9213,13 +9208,13 @@
         <v>121662</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>13</v>
@@ -9241,19 +9236,19 @@
         <v>517401</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C184" s="2">
         <v>152540</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E184" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>13</v>
@@ -9281,13 +9276,13 @@
         <v>121662</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>13</v>
@@ -9315,13 +9310,13 @@
         <v>121662</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>13</v>
@@ -9342,19 +9337,19 @@
         <v>517504</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C187" s="2">
         <v>153373</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>13</v>
@@ -9381,13 +9376,13 @@
         <v>121662</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F188" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>13</v>
@@ -9416,2690 +9411,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J83"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>524305</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2">
-        <v>40</v>
-      </c>
-      <c r="J2" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>524240</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2">
-        <v>95</v>
-      </c>
-      <c r="J3" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>524152</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2">
-        <v>95</v>
-      </c>
-      <c r="J4" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>524001</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>524201</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2">
-        <v>90</v>
-      </c>
-      <c r="J6" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>524202</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2">
-        <v>90</v>
-      </c>
-      <c r="J7" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>524316</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>524344</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2">
-        <v>90</v>
-      </c>
-      <c r="J9" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>524313</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="J10" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>524230</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="2">
-        <v>90</v>
-      </c>
-      <c r="J11" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>524002</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>524003</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2">
-        <v>15</v>
-      </c>
-      <c r="J13" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>524004</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>524005</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2">
-        <v>15</v>
-      </c>
-      <c r="J15" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>524006</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="J16" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>524137</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2">
-        <v>30</v>
-      </c>
-      <c r="J17" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>524142</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="2">
-        <v>76.5</v>
-      </c>
-      <c r="J18" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>524203</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="2">
-        <v>85</v>
-      </c>
-      <c r="J19" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>524221</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="2">
-        <v>115</v>
-      </c>
-      <c r="J20" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>524222</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="2">
-        <v>110</v>
-      </c>
-      <c r="J21" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>524223</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2">
-        <v>80</v>
-      </c>
-      <c r="J22" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>524224</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="2">
-        <v>95</v>
-      </c>
-      <c r="J23" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>524226</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="2">
-        <v>140</v>
-      </c>
-      <c r="J24" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>524227</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="2">
-        <v>145</v>
-      </c>
-      <c r="J25" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>524228</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="2">
-        <v>100</v>
-      </c>
-      <c r="J26" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>524234</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="2">
-        <v>100</v>
-      </c>
-      <c r="J27" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>524236</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="2">
-        <v>145</v>
-      </c>
-      <c r="J28" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>524302</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="2">
-        <v>107.5</v>
-      </c>
-      <c r="J29" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>524303</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="2">
-        <v>95</v>
-      </c>
-      <c r="J30" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>524304</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="2">
-        <v>80</v>
-      </c>
-      <c r="J31" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>524306</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="J32" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>524307</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="2">
-        <v>100</v>
-      </c>
-      <c r="J33" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>524309</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="2">
-        <v>51.5</v>
-      </c>
-      <c r="J34" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>524311</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="J35" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>524312</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="2">
-        <v>115</v>
-      </c>
-      <c r="J36" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>524315</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="2">
-        <v>55</v>
-      </c>
-      <c r="J37" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>524317</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="2">
-        <v>40</v>
-      </c>
-      <c r="J38" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>524322</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="2">
-        <v>80</v>
-      </c>
-      <c r="J39" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>524323</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="2">
-        <v>35</v>
-      </c>
-      <c r="J40" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>524324</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="2">
-        <v>125</v>
-      </c>
-      <c r="J41" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>524333</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="2">
-        <v>53.5</v>
-      </c>
-      <c r="J42" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>524343</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="2">
-        <v>85</v>
-      </c>
-      <c r="J43" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>524345</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="2">
-        <v>55</v>
-      </c>
-      <c r="J44" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>524346</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="J45" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>524366</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="2">
-        <v>35</v>
-      </c>
-      <c r="J46" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>524407</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="2">
-        <v>76.5</v>
-      </c>
-      <c r="J47" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>524408</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="2">
-        <v>77.5</v>
-      </c>
-      <c r="J48" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>524409</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="2">
-        <v>77.5</v>
-      </c>
-      <c r="J49" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>524308</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="2">
-        <v>53.5</v>
-      </c>
-      <c r="J50" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>524310</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="2">
-        <v>140</v>
-      </c>
-      <c r="J51" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>524225</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="2">
-        <v>77.5</v>
-      </c>
-      <c r="J52" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>524301</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="2">
-        <v>85</v>
-      </c>
-      <c r="J53" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>524321</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="2">
-        <v>153277</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="2">
-        <v>40</v>
-      </c>
-      <c r="J54" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>524218</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="2">
-        <v>152401</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="2">
-        <v>55</v>
-      </c>
-      <c r="J55" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>524341</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="2">
-        <v>95</v>
-      </c>
-      <c r="J56" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>524412</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="2">
-        <v>90</v>
-      </c>
-      <c r="J57" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>524403</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="2">
-        <v>110</v>
-      </c>
-      <c r="J58" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>524134</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="2">
-        <v>80</v>
-      </c>
-      <c r="J59" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>524410</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="2">
-        <v>90</v>
-      </c>
-      <c r="J60" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>524126</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="2">
-        <v>80</v>
-      </c>
-      <c r="J61" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>524101</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="2">
-        <v>98</v>
-      </c>
-      <c r="J62" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>524102</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="2">
-        <v>98</v>
-      </c>
-      <c r="J63" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>524119</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="2">
-        <v>120</v>
-      </c>
-      <c r="J64" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>524120</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="2">
-        <v>110</v>
-      </c>
-      <c r="J65" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>524121</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="2">
-        <v>85</v>
-      </c>
-      <c r="J66" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>524123</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="2">
-        <v>94</v>
-      </c>
-      <c r="J67" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>524124</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="2">
-        <v>108.3</v>
-      </c>
-      <c r="J68" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>524127</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="2">
-        <v>89.9</v>
-      </c>
-      <c r="J69" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>524129</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="2">
-        <v>52.6</v>
-      </c>
-      <c r="J70" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>524131</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="2">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="J71" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>524132</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="2">
-        <v>69.5</v>
-      </c>
-      <c r="J72" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>524401</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="2">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="J73" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>524402</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="2">
-        <v>87.5</v>
-      </c>
-      <c r="J74" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>524404</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="2">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="J75" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>524405</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="2">
-        <v>98</v>
-      </c>
-      <c r="J76" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>524411</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="2">
-        <v>108.3</v>
-      </c>
-      <c r="J77" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>524414</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="2">
-        <v>88.6</v>
-      </c>
-      <c r="J78" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>524421</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="2">
-        <v>68.7</v>
-      </c>
-      <c r="J79" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>524441</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="2">
-        <v>105</v>
-      </c>
-      <c r="J80" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>524624</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="2">
-        <v>105</v>
-      </c>
-      <c r="J81" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>524415</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="2">
-        <v>95.8</v>
-      </c>
-      <c r="J82" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>524320</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="2">
-        <v>121662</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="2">
-        <v>55.3</v>
-      </c>
-      <c r="J83" s="2">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J83"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -12182,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -12215,7 +9526,7 @@
         <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -12248,7 +9559,7 @@
         <v>350</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -12281,72 +9592,72 @@
         <v>250</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K5" s="4"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="7">
+        <v>240</v>
+      </c>
+      <c r="C21" s="6">
         <v>150</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="7">
+        <v>241</v>
+      </c>
+      <c r="C22" s="6">
         <v>250</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="7">
+        <v>242</v>
+      </c>
+      <c r="C23" s="6">
         <v>350</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/Voltas_non_standard/Mysql/Area_mapping.xlsx
+++ b/Voltas_non_standard/Mysql/Area_mapping.xlsx
@@ -2833,12 +2833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2889,7 +2887,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>524305</v>
       </c>
@@ -2927,7 +2925,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>524240</v>
+        <v>524002</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -2939,29 +2937,28 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2">
-        <v>95</v>
+        <v>25.3</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J66" si="0">IF(I3&gt;75,290,IF(I3&gt;50,250,IF(I3&gt;25,150,0)))</f>
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>524152</v>
       </c>
@@ -2990,14 +2987,14 @@
         <v>95</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I4&gt;75,290,IF(I4&gt;50,250,IF(I4&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>524001</v>
       </c>
@@ -3026,14 +3023,14 @@
         <v>15</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I5&gt;75,290,IF(I5&gt;50,250,IF(I5&gt;25,150,0)))</f>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>524201</v>
       </c>
@@ -3062,14 +3059,14 @@
         <v>90</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I6&gt;75,290,IF(I6&gt;50,250,IF(I6&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>524202</v>
       </c>
@@ -3098,14 +3095,14 @@
         <v>90</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I7&gt;75,290,IF(I7&gt;50,250,IF(I7&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>524316</v>
       </c>
@@ -3134,14 +3131,14 @@
         <v>30</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I8&gt;75,290,IF(I8&gt;50,250,IF(I8&gt;25,150,0)))</f>
         <v>150</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>524344</v>
       </c>
@@ -3170,7 +3167,7 @@
         <v>90</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I9&gt;75,290,IF(I9&gt;50,250,IF(I9&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -3179,7 +3176,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>524313</v>
+        <v>524302</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -3191,10 +3188,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -3203,11 +3200,11 @@
         <v>18</v>
       </c>
       <c r="I10" s="2">
-        <v>52.5</v>
+        <v>107.5</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <f>IF(I10&gt;75,290,IF(I10&gt;50,250,IF(I10&gt;25,150,0)))</f>
+        <v>290</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>121</v>
@@ -3215,7 +3212,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>524230</v>
+        <v>524004</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -3227,23 +3224,22 @@
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2">
-        <v>90</v>
+        <v>25.3</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>121</v>
@@ -3251,7 +3247,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>524002</v>
+        <v>524304</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -3266,25 +3262,26 @@
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="2">
-        <v>25.3</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2">
-        <v>100</v>
+        <f>IF(I12&gt;75,290,IF(I12&gt;50,250,IF(I12&gt;25,150,0)))</f>
+        <v>290</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>524003</v>
       </c>
@@ -3313,7 +3310,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I13&gt;75,290,IF(I13&gt;50,250,IF(I13&gt;25,150,0)))</f>
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -3322,7 +3319,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>524004</v>
+        <v>524322</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -3337,19 +3334,20 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I14" s="2">
-        <v>25.3</v>
+        <v>80</v>
       </c>
       <c r="J14" s="2">
-        <v>100</v>
+        <f>IF(I14&gt;75,290,IF(I14&gt;50,250,IF(I14&gt;25,150,0)))</f>
+        <v>290</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>121</v>
@@ -3357,7 +3355,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>524005</v>
+        <v>524310</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -3369,29 +3367,29 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I15" s="2">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(I15&gt;75,290,IF(I15&gt;50,250,IF(I15&gt;25,150,0)))</f>
+        <v>290</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>524006</v>
       </c>
@@ -3420,14 +3418,14 @@
         <v>27.5</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I16&gt;75,290,IF(I16&gt;50,250,IF(I16&gt;25,150,0)))</f>
         <v>150</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>524137</v>
       </c>
@@ -3456,14 +3454,14 @@
         <v>30</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I17&gt;75,290,IF(I17&gt;50,250,IF(I17&gt;25,150,0)))</f>
         <v>150</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>524142</v>
       </c>
@@ -3492,14 +3490,14 @@
         <v>76.5</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I18&gt;75,290,IF(I18&gt;50,250,IF(I18&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>524203</v>
       </c>
@@ -3528,14 +3526,14 @@
         <v>85</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I19&gt;75,290,IF(I19&gt;50,250,IF(I19&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>524221</v>
       </c>
@@ -3564,7 +3562,7 @@
         <v>115</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I20&gt;75,290,IF(I20&gt;50,250,IF(I20&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -3573,7 +3571,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>524222</v>
+        <v>524230</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -3585,10 +3583,10 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>13</v>
@@ -3597,17 +3595,17 @@
         <v>18</v>
       </c>
       <c r="I21" s="2">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I21&gt;75,290,IF(I21&gt;50,250,IF(I21&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>524223</v>
       </c>
@@ -3636,7 +3634,7 @@
         <v>80</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I22&gt;75,290,IF(I22&gt;50,250,IF(I22&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -3645,7 +3643,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>524224</v>
+        <v>524240</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -3657,10 +3655,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>13</v>
@@ -3672,7 +3670,7 @@
         <v>95</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I23&gt;75,290,IF(I23&gt;50,250,IF(I23&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -3681,7 +3679,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>524226</v>
+        <v>524346</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
@@ -3696,7 +3694,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>13</v>
@@ -3705,17 +3703,17 @@
         <v>18</v>
       </c>
       <c r="I24" s="2">
-        <v>140</v>
+        <v>52.5</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <f>IF(I24&gt;75,290,IF(I24&gt;50,250,IF(I24&gt;25,150,0)))</f>
+        <v>250</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>524227</v>
       </c>
@@ -3744,14 +3742,14 @@
         <v>145</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I25&gt;75,290,IF(I25&gt;50,250,IF(I25&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>524228</v>
       </c>
@@ -3780,7 +3778,7 @@
         <v>100</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I26&gt;75,290,IF(I26&gt;50,250,IF(I26&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -3789,7 +3787,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>524234</v>
+        <v>524222</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
@@ -3804,7 +3802,7 @@
         <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>13</v>
@@ -3813,19 +3811,19 @@
         <v>18</v>
       </c>
       <c r="I27" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I27&gt;75,290,IF(I27&gt;50,250,IF(I27&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>524236</v>
+        <v>524317</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
@@ -3840,28 +3838,28 @@
         <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I28" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <f>IF(I28&gt;75,290,IF(I28&gt;50,250,IF(I28&gt;25,150,0)))</f>
+        <v>150</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>524302</v>
+        <v>524236</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
@@ -3876,7 +3874,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>13</v>
@@ -3885,10 +3883,10 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <v>107.5</v>
+        <v>145</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I29&gt;75,290,IF(I29&gt;50,250,IF(I29&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -3897,7 +3895,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>524303</v>
+        <v>524407</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -3912,7 +3910,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
@@ -3921,19 +3919,19 @@
         <v>18</v>
       </c>
       <c r="I30" s="2">
-        <v>95</v>
+        <v>76.5</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I30&gt;75,290,IF(I30&gt;50,250,IF(I30&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>524304</v>
+        <v>524234</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
@@ -3948,7 +3946,7 @@
         <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>13</v>
@@ -3957,17 +3955,17 @@
         <v>18</v>
       </c>
       <c r="I31" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I31&gt;75,290,IF(I31&gt;50,250,IF(I31&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>524306</v>
       </c>
@@ -3996,7 +3994,7 @@
         <v>27.5</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I32&gt;75,290,IF(I32&gt;50,250,IF(I32&gt;25,150,0)))</f>
         <v>150</v>
       </c>
       <c r="K32" s="2" t="s">
@@ -4005,7 +4003,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>524307</v>
+        <v>524409</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
@@ -4020,7 +4018,7 @@
         <v>9</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>13</v>
@@ -4029,10 +4027,10 @@
         <v>18</v>
       </c>
       <c r="I33" s="2">
-        <v>100</v>
+        <v>77.5</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I33&gt;75,290,IF(I33&gt;50,250,IF(I33&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K33" s="2" t="s">
@@ -4041,7 +4039,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>524309</v>
+        <v>524224</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
@@ -4056,7 +4054,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>13</v>
@@ -4065,17 +4063,17 @@
         <v>18</v>
       </c>
       <c r="I34" s="2">
-        <v>51.5</v>
+        <v>95</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <f>IF(I34&gt;75,290,IF(I34&gt;50,250,IF(I34&gt;25,150,0)))</f>
+        <v>290</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>524311</v>
       </c>
@@ -4104,7 +4102,7 @@
         <v>26.5</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I35&gt;75,290,IF(I35&gt;50,250,IF(I35&gt;25,150,0)))</f>
         <v>150</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -4113,7 +4111,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>524312</v>
+        <v>524343</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
@@ -4128,7 +4126,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>13</v>
@@ -4137,17 +4135,17 @@
         <v>18</v>
       </c>
       <c r="I36" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I36&gt;75,290,IF(I36&gt;50,250,IF(I36&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>524315</v>
       </c>
@@ -4176,7 +4174,7 @@
         <v>55</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I37&gt;75,290,IF(I37&gt;50,250,IF(I37&gt;25,150,0)))</f>
         <v>250</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -4185,7 +4183,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>524317</v>
+        <v>524307</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>8</v>
@@ -4200,28 +4198,28 @@
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>IF(I38&gt;75,290,IF(I38&gt;50,250,IF(I38&gt;25,150,0)))</f>
+        <v>290</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>524322</v>
+        <v>524333</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
@@ -4236,7 +4234,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>13</v>
@@ -4245,17 +4243,17 @@
         <v>18</v>
       </c>
       <c r="I39" s="2">
-        <v>80</v>
+        <v>53.5</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <f>IF(I39&gt;75,290,IF(I39&gt;50,250,IF(I39&gt;25,150,0)))</f>
+        <v>250</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>524323</v>
       </c>
@@ -4284,14 +4282,14 @@
         <v>35</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I40&gt;75,290,IF(I40&gt;50,250,IF(I40&gt;25,150,0)))</f>
         <v>150</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>524324</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>125</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I41&gt;75,290,IF(I41&gt;50,250,IF(I41&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K41" s="2" t="s">
@@ -4329,7 +4327,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>524333</v>
+        <v>524301</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
@@ -4341,31 +4339,31 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="2">
         <v>85</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="2">
-        <v>53.5</v>
-      </c>
       <c r="J42" s="2">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <f>IF(I42&gt;75,290,IF(I42&gt;50,250,IF(I42&gt;25,150,0)))</f>
+        <v>290</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>524343</v>
+        <v>524312</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>8</v>
@@ -4380,7 +4378,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>13</v>
@@ -4389,10 +4387,10 @@
         <v>18</v>
       </c>
       <c r="I43" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I43&gt;75,290,IF(I43&gt;50,250,IF(I43&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K43" s="2" t="s">
@@ -4401,7 +4399,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>524345</v>
+        <v>524005</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>8</v>
@@ -4416,7 +4414,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>13</v>
@@ -4425,19 +4423,19 @@
         <v>12</v>
       </c>
       <c r="I44" s="2">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <f>IF(I44&gt;75,290,IF(I44&gt;50,250,IF(I44&gt;25,150,0)))</f>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>524346</v>
+        <v>524313</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -4449,10 +4447,10 @@
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>13</v>
@@ -4464,14 +4462,14 @@
         <v>52.5</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I45&gt;75,290,IF(I45&gt;50,250,IF(I45&gt;25,150,0)))</f>
         <v>250</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>524366</v>
       </c>
@@ -4500,7 +4498,7 @@
         <v>35</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I46&gt;75,290,IF(I46&gt;50,250,IF(I46&gt;25,150,0)))</f>
         <v>150</v>
       </c>
       <c r="K46" s="2" t="s">
@@ -4509,7 +4507,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>524407</v>
+        <v>524408</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>8</v>
@@ -4524,7 +4522,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>13</v>
@@ -4533,10 +4531,10 @@
         <v>18</v>
       </c>
       <c r="I47" s="2">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I47&gt;75,290,IF(I47&gt;50,250,IF(I47&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K47" s="2" t="s">
@@ -4545,7 +4543,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>524408</v>
+        <v>524303</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>8</v>
@@ -4560,28 +4558,28 @@
         <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="2">
         <v>95</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="2">
-        <v>77.5</v>
-      </c>
       <c r="J48" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I48&gt;75,290,IF(I48&gt;50,250,IF(I48&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>524409</v>
+        <v>524321</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>8</v>
@@ -4593,10 +4591,10 @@
         <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>13</v>
@@ -4605,11 +4603,11 @@
         <v>18</v>
       </c>
       <c r="I49" s="2">
-        <v>77.5</v>
+        <v>40</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <f>IF(I49&gt;75,290,IF(I49&gt;50,250,IF(I49&gt;25,150,0)))</f>
+        <v>150</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>121</v>
@@ -4617,7 +4615,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>524308</v>
+        <v>524345</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>8</v>
@@ -4629,22 +4627,22 @@
         <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I50" s="2">
-        <v>53.5</v>
+        <v>55</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I50&gt;75,290,IF(I50&gt;50,250,IF(I50&gt;25,150,0)))</f>
         <v>250</v>
       </c>
       <c r="K50" s="2" t="s">
@@ -4653,7 +4651,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>524310</v>
+        <v>524225</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>8</v>
@@ -4665,10 +4663,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>13</v>
@@ -4677,19 +4675,19 @@
         <v>18</v>
       </c>
       <c r="I51" s="2">
-        <v>140</v>
+        <v>77.5</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I51&gt;75,290,IF(I51&gt;50,250,IF(I51&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>524225</v>
+        <v>524226</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>8</v>
@@ -4701,10 +4699,10 @@
         <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>13</v>
@@ -4713,10 +4711,10 @@
         <v>18</v>
       </c>
       <c r="I52" s="2">
-        <v>77.5</v>
+        <v>140</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(I52&gt;75,290,IF(I52&gt;50,250,IF(I52&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K52" s="2" t="s">
@@ -4725,7 +4723,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>524301</v>
+        <v>524308</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>8</v>
@@ -4737,10 +4735,10 @@
         <v>9</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>13</v>
@@ -4749,11 +4747,11 @@
         <v>18</v>
       </c>
       <c r="I53" s="2">
-        <v>85</v>
+        <v>53.5</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <f>IF(I53&gt;75,290,IF(I53&gt;50,250,IF(I53&gt;25,150,0)))</f>
+        <v>250</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>118</v>
@@ -4761,7 +4759,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>524321</v>
+        <v>524309</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>8</v>
@@ -4773,10 +4771,10 @@
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>13</v>
@@ -4785,17 +4783,17 @@
         <v>18</v>
       </c>
       <c r="I54" s="2">
-        <v>40</v>
+        <v>51.5</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>IF(I54&gt;75,290,IF(I54&gt;50,250,IF(I54&gt;25,150,0)))</f>
+        <v>250</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>524218</v>
       </c>
@@ -4824,14 +4822,14 @@
         <v>55</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J66" si="0">IF(I55&gt;75,290,IF(I55&gt;50,250,IF(I55&gt;25,150,0)))</f>
         <v>250</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>524341</v>
       </c>
@@ -4867,7 +4865,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>524412</v>
       </c>
@@ -4903,7 +4901,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>524403</v>
       </c>
@@ -4939,7 +4937,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>524134</v>
       </c>
@@ -4975,7 +4973,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>524410</v>
       </c>
@@ -5011,7 +5009,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>524126</v>
       </c>
@@ -5047,7 +5045,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>524101</v>
       </c>
@@ -5083,7 +5081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>524102</v>
       </c>
@@ -5119,7 +5117,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>524119</v>
       </c>
@@ -5155,7 +5153,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>524120</v>
       </c>
@@ -5191,7 +5189,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>524121</v>
       </c>
@@ -5227,7 +5225,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>524123</v>
       </c>
@@ -5263,7 +5261,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>524124</v>
       </c>
@@ -5299,7 +5297,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>524127</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>524129</v>
       </c>
@@ -5371,7 +5369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>524131</v>
       </c>
@@ -5407,7 +5405,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>524132</v>
       </c>
@@ -5443,7 +5441,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>524401</v>
       </c>
@@ -5479,7 +5477,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>524402</v>
       </c>
@@ -5515,7 +5513,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>524404</v>
       </c>
@@ -5551,7 +5549,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>524405</v>
       </c>
@@ -5587,7 +5585,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>524411</v>
       </c>
@@ -5623,7 +5621,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>524414</v>
       </c>
@@ -5659,7 +5657,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>524421</v>
       </c>
@@ -5695,7 +5693,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>524441</v>
       </c>
@@ -5731,7 +5729,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>524624</v>
       </c>
@@ -5767,7 +5765,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>524415</v>
       </c>
@@ -5803,7 +5801,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>524320</v>
       </c>
@@ -5839,7 +5837,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>517502</v>
       </c>
@@ -5873,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>517506</v>
       </c>
@@ -5906,7 +5904,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>517507</v>
       </c>
@@ -5940,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>517590</v>
       </c>
@@ -5974,7 +5972,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>517551</v>
       </c>
@@ -6008,7 +6006,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>517277</v>
       </c>
@@ -6042,7 +6040,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>517001</v>
       </c>
@@ -6076,7 +6074,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>517423</v>
       </c>
@@ -6110,7 +6108,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>517613</v>
       </c>
@@ -6143,7 +6141,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>515412</v>
       </c>
@@ -6176,7 +6174,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>517002</v>
       </c>
@@ -6210,7 +6208,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>517003</v>
       </c>
@@ -6244,7 +6242,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>517004</v>
       </c>
@@ -6278,7 +6276,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>517101</v>
       </c>
@@ -6312,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>517102</v>
       </c>
@@ -6346,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>517112</v>
       </c>
@@ -6379,7 +6377,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>517113</v>
       </c>
@@ -6413,7 +6411,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>517123</v>
       </c>
@@ -6447,7 +6445,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>517124</v>
       </c>
@@ -6481,7 +6479,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>517125</v>
       </c>
@@ -6515,7 +6513,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>517126</v>
       </c>
@@ -6549,7 +6547,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>517127</v>
       </c>
@@ -6583,7 +6581,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>517128</v>
       </c>
@@ -6617,7 +6615,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>517129</v>
       </c>
@@ -6651,7 +6649,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>517130</v>
       </c>
@@ -6685,7 +6683,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>517131</v>
       </c>
@@ -6719,7 +6717,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>517132</v>
       </c>
@@ -6753,7 +6751,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>517150</v>
       </c>
@@ -6786,7 +6784,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>517152</v>
       </c>
@@ -6820,7 +6818,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>517167</v>
       </c>
@@ -6854,7 +6852,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>517172</v>
       </c>
@@ -6888,7 +6886,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>517192</v>
       </c>
@@ -6922,7 +6920,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>517193</v>
       </c>
@@ -6956,7 +6954,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>517194</v>
       </c>
@@ -6990,7 +6988,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>517198</v>
       </c>
@@ -7023,7 +7021,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>517213</v>
       </c>
@@ -7057,7 +7055,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>517214</v>
       </c>
@@ -7091,7 +7089,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>517234</v>
       </c>
@@ -7125,7 +7123,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>517235</v>
       </c>
@@ -7159,7 +7157,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>517236</v>
       </c>
@@ -7193,7 +7191,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>517237</v>
       </c>
@@ -7227,7 +7225,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>517247</v>
       </c>
@@ -7261,7 +7259,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>517257</v>
       </c>
@@ -7295,7 +7293,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>517280</v>
       </c>
@@ -7329,7 +7327,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>517291</v>
       </c>
@@ -7363,7 +7361,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>517297</v>
       </c>
@@ -7397,7 +7395,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>517299</v>
       </c>
@@ -7431,7 +7429,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>517302</v>
       </c>
@@ -7464,7 +7462,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>517305</v>
       </c>
@@ -7498,7 +7496,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>517319</v>
       </c>
@@ -7532,7 +7530,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>517325</v>
       </c>
@@ -7566,7 +7564,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>517326</v>
       </c>
@@ -7600,7 +7598,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>517327</v>
       </c>
@@ -7634,7 +7632,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>517350</v>
       </c>
@@ -7668,7 +7666,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>517351</v>
       </c>
@@ -7702,7 +7700,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>517352</v>
       </c>
@@ -7736,7 +7734,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>517370</v>
       </c>
@@ -7770,7 +7768,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>517390</v>
       </c>
@@ -7804,7 +7802,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>517391</v>
       </c>
@@ -7838,7 +7836,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>517403</v>
       </c>
@@ -7872,7 +7870,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>517408</v>
       </c>
@@ -7906,7 +7904,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>517414</v>
       </c>
@@ -7940,7 +7938,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>517415</v>
       </c>
@@ -7974,7 +7972,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>517416</v>
       </c>
@@ -8008,7 +8006,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>517417</v>
       </c>
@@ -8042,7 +8040,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>517418</v>
       </c>
@@ -8076,7 +8074,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>517419</v>
       </c>
@@ -8110,7 +8108,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>517421</v>
       </c>
@@ -8144,7 +8142,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>517422</v>
       </c>
@@ -8178,7 +8176,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>517424</v>
       </c>
@@ -8212,7 +8210,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>517425</v>
       </c>
@@ -8246,7 +8244,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>517429</v>
       </c>
@@ -8280,7 +8278,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>517432</v>
       </c>
@@ -8314,7 +8312,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>517503</v>
       </c>
@@ -8348,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>517505</v>
       </c>
@@ -8382,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>517517</v>
       </c>
@@ -8415,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>517526</v>
       </c>
@@ -8449,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>517536</v>
       </c>
@@ -8483,7 +8481,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>517541</v>
       </c>
@@ -8517,7 +8515,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>517561</v>
       </c>
@@ -8551,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>517569</v>
       </c>
@@ -8585,7 +8583,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>517571</v>
       </c>
@@ -8619,7 +8617,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>517581</v>
       </c>
@@ -8653,7 +8651,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>517583</v>
       </c>
@@ -8687,7 +8685,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>517584</v>
       </c>
@@ -8721,7 +8719,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>517586</v>
       </c>
@@ -8755,7 +8753,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>517587</v>
       </c>
@@ -8789,7 +8787,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>517588</v>
       </c>
@@ -8823,7 +8821,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>517589</v>
       </c>
@@ -8857,7 +8855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>517591</v>
       </c>
@@ -8891,7 +8889,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>517592</v>
       </c>
@@ -8925,7 +8923,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>517599</v>
       </c>
@@ -8959,7 +8957,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>517619</v>
       </c>
@@ -8993,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>517620</v>
       </c>
@@ -9027,7 +9025,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>517640</v>
       </c>
@@ -9061,7 +9059,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>517641</v>
       </c>
@@ -9095,7 +9093,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>517642</v>
       </c>
@@ -9129,7 +9127,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>517643</v>
       </c>
@@ -9163,7 +9161,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>517644</v>
       </c>
@@ -9197,7 +9195,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>517582</v>
       </c>
@@ -9231,7 +9229,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>517401</v>
       </c>
@@ -9265,7 +9263,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>517520</v>
       </c>
@@ -9299,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>517664</v>
       </c>
@@ -9332,7 +9330,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>517504</v>
       </c>
@@ -9365,7 +9363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>517501</v>
       </c>
@@ -9400,11 +9398,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K188">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="AL MADINA ENTERPRISES"/>
-      </filters>
-    </filterColumn>
+    <sortState ref="A3:K54">
+      <sortCondition ref="F1:F188"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Voltas_non_standard/Mysql/Area_mapping.xlsx
+++ b/Voltas_non_standard/Mysql/Area_mapping.xlsx
@@ -2833,10 +2833,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J164" sqref="J164"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2887,7 +2889,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>524305</v>
       </c>
@@ -2923,7 +2925,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>524002</v>
       </c>
@@ -2958,7 +2960,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>524152</v>
       </c>
@@ -2987,14 +2989,14 @@
         <v>95</v>
       </c>
       <c r="J4" s="2">
-        <f>IF(I4&gt;75,290,IF(I4&gt;50,250,IF(I4&gt;25,150,0)))</f>
+        <f t="shared" ref="J4:J10" si="0">IF(I4&gt;75,290,IF(I4&gt;50,250,IF(I4&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>524001</v>
       </c>
@@ -3023,14 +3025,14 @@
         <v>15</v>
       </c>
       <c r="J5" s="2">
-        <f>IF(I5&gt;75,290,IF(I5&gt;50,250,IF(I5&gt;25,150,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>524201</v>
       </c>
@@ -3059,14 +3061,14 @@
         <v>90</v>
       </c>
       <c r="J6" s="2">
-        <f>IF(I6&gt;75,290,IF(I6&gt;50,250,IF(I6&gt;25,150,0)))</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>524202</v>
       </c>
@@ -3095,14 +3097,14 @@
         <v>90</v>
       </c>
       <c r="J7" s="2">
-        <f>IF(I7&gt;75,290,IF(I7&gt;50,250,IF(I7&gt;25,150,0)))</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>524316</v>
       </c>
@@ -3131,14 +3133,14 @@
         <v>30</v>
       </c>
       <c r="J8" s="2">
-        <f>IF(I8&gt;75,290,IF(I8&gt;50,250,IF(I8&gt;25,150,0)))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>524344</v>
       </c>
@@ -3167,14 +3169,14 @@
         <v>90</v>
       </c>
       <c r="J9" s="2">
-        <f>IF(I9&gt;75,290,IF(I9&gt;50,250,IF(I9&gt;25,150,0)))</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>524302</v>
       </c>
@@ -3203,14 +3205,14 @@
         <v>107.5</v>
       </c>
       <c r="J10" s="2">
-        <f>IF(I10&gt;75,290,IF(I10&gt;50,250,IF(I10&gt;25,150,0)))</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>524004</v>
       </c>
@@ -3245,7 +3247,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>524304</v>
       </c>
@@ -3274,14 +3276,14 @@
         <v>80</v>
       </c>
       <c r="J12" s="2">
-        <f>IF(I12&gt;75,290,IF(I12&gt;50,250,IF(I12&gt;25,150,0)))</f>
+        <f t="shared" ref="J12:J54" si="1">IF(I12&gt;75,290,IF(I12&gt;50,250,IF(I12&gt;25,150,0)))</f>
         <v>290</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>524003</v>
       </c>
@@ -3310,14 +3312,14 @@
         <v>15</v>
       </c>
       <c r="J13" s="2">
-        <f>IF(I13&gt;75,290,IF(I13&gt;50,250,IF(I13&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>524322</v>
       </c>
@@ -3346,14 +3348,14 @@
         <v>80</v>
       </c>
       <c r="J14" s="2">
-        <f>IF(I14&gt;75,290,IF(I14&gt;50,250,IF(I14&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>524310</v>
       </c>
@@ -3382,14 +3384,14 @@
         <v>140</v>
       </c>
       <c r="J15" s="2">
-        <f>IF(I15&gt;75,290,IF(I15&gt;50,250,IF(I15&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>524006</v>
       </c>
@@ -3418,14 +3420,14 @@
         <v>27.5</v>
       </c>
       <c r="J16" s="2">
-        <f>IF(I16&gt;75,290,IF(I16&gt;50,250,IF(I16&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>524137</v>
       </c>
@@ -3454,14 +3456,14 @@
         <v>30</v>
       </c>
       <c r="J17" s="2">
-        <f>IF(I17&gt;75,290,IF(I17&gt;50,250,IF(I17&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>524142</v>
       </c>
@@ -3490,14 +3492,14 @@
         <v>76.5</v>
       </c>
       <c r="J18" s="2">
-        <f>IF(I18&gt;75,290,IF(I18&gt;50,250,IF(I18&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>524203</v>
       </c>
@@ -3526,14 +3528,14 @@
         <v>85</v>
       </c>
       <c r="J19" s="2">
-        <f>IF(I19&gt;75,290,IF(I19&gt;50,250,IF(I19&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>524221</v>
       </c>
@@ -3562,14 +3564,14 @@
         <v>115</v>
       </c>
       <c r="J20" s="2">
-        <f>IF(I20&gt;75,290,IF(I20&gt;50,250,IF(I20&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>524230</v>
       </c>
@@ -3598,14 +3600,14 @@
         <v>90</v>
       </c>
       <c r="J21" s="2">
-        <f>IF(I21&gt;75,290,IF(I21&gt;50,250,IF(I21&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>524223</v>
       </c>
@@ -3634,14 +3636,14 @@
         <v>80</v>
       </c>
       <c r="J22" s="2">
-        <f>IF(I22&gt;75,290,IF(I22&gt;50,250,IF(I22&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>524240</v>
       </c>
@@ -3670,14 +3672,14 @@
         <v>95</v>
       </c>
       <c r="J23" s="2">
-        <f>IF(I23&gt;75,290,IF(I23&gt;50,250,IF(I23&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>524346</v>
       </c>
@@ -3706,14 +3708,14 @@
         <v>52.5</v>
       </c>
       <c r="J24" s="2">
-        <f>IF(I24&gt;75,290,IF(I24&gt;50,250,IF(I24&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>524227</v>
       </c>
@@ -3742,14 +3744,14 @@
         <v>145</v>
       </c>
       <c r="J25" s="2">
-        <f>IF(I25&gt;75,290,IF(I25&gt;50,250,IF(I25&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>524228</v>
       </c>
@@ -3778,14 +3780,14 @@
         <v>100</v>
       </c>
       <c r="J26" s="2">
-        <f>IF(I26&gt;75,290,IF(I26&gt;50,250,IF(I26&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>524222</v>
       </c>
@@ -3814,14 +3816,14 @@
         <v>110</v>
       </c>
       <c r="J27" s="2">
-        <f>IF(I27&gt;75,290,IF(I27&gt;50,250,IF(I27&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>524317</v>
       </c>
@@ -3850,14 +3852,14 @@
         <v>40</v>
       </c>
       <c r="J28" s="2">
-        <f>IF(I28&gt;75,290,IF(I28&gt;50,250,IF(I28&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>524236</v>
       </c>
@@ -3886,14 +3888,14 @@
         <v>145</v>
       </c>
       <c r="J29" s="2">
-        <f>IF(I29&gt;75,290,IF(I29&gt;50,250,IF(I29&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>524407</v>
       </c>
@@ -3922,14 +3924,14 @@
         <v>76.5</v>
       </c>
       <c r="J30" s="2">
-        <f>IF(I30&gt;75,290,IF(I30&gt;50,250,IF(I30&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>524234</v>
       </c>
@@ -3958,14 +3960,14 @@
         <v>100</v>
       </c>
       <c r="J31" s="2">
-        <f>IF(I31&gt;75,290,IF(I31&gt;50,250,IF(I31&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>524306</v>
       </c>
@@ -3994,14 +3996,14 @@
         <v>27.5</v>
       </c>
       <c r="J32" s="2">
-        <f>IF(I32&gt;75,290,IF(I32&gt;50,250,IF(I32&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>524409</v>
       </c>
@@ -4030,14 +4032,14 @@
         <v>77.5</v>
       </c>
       <c r="J33" s="2">
-        <f>IF(I33&gt;75,290,IF(I33&gt;50,250,IF(I33&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>524224</v>
       </c>
@@ -4066,14 +4068,14 @@
         <v>95</v>
       </c>
       <c r="J34" s="2">
-        <f>IF(I34&gt;75,290,IF(I34&gt;50,250,IF(I34&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>524311</v>
       </c>
@@ -4102,14 +4104,14 @@
         <v>26.5</v>
       </c>
       <c r="J35" s="2">
-        <f>IF(I35&gt;75,290,IF(I35&gt;50,250,IF(I35&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>524343</v>
       </c>
@@ -4138,14 +4140,14 @@
         <v>85</v>
       </c>
       <c r="J36" s="2">
-        <f>IF(I36&gt;75,290,IF(I36&gt;50,250,IF(I36&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>524315</v>
       </c>
@@ -4174,14 +4176,14 @@
         <v>55</v>
       </c>
       <c r="J37" s="2">
-        <f>IF(I37&gt;75,290,IF(I37&gt;50,250,IF(I37&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>524307</v>
       </c>
@@ -4210,14 +4212,14 @@
         <v>100</v>
       </c>
       <c r="J38" s="2">
-        <f>IF(I38&gt;75,290,IF(I38&gt;50,250,IF(I38&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>524333</v>
       </c>
@@ -4246,14 +4248,14 @@
         <v>53.5</v>
       </c>
       <c r="J39" s="2">
-        <f>IF(I39&gt;75,290,IF(I39&gt;50,250,IF(I39&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>524323</v>
       </c>
@@ -4282,14 +4284,14 @@
         <v>35</v>
       </c>
       <c r="J40" s="2">
-        <f>IF(I40&gt;75,290,IF(I40&gt;50,250,IF(I40&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>524324</v>
       </c>
@@ -4318,14 +4320,14 @@
         <v>125</v>
       </c>
       <c r="J41" s="2">
-        <f>IF(I41&gt;75,290,IF(I41&gt;50,250,IF(I41&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>524301</v>
       </c>
@@ -4354,14 +4356,14 @@
         <v>85</v>
       </c>
       <c r="J42" s="2">
-        <f>IF(I42&gt;75,290,IF(I42&gt;50,250,IF(I42&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>524312</v>
       </c>
@@ -4390,14 +4392,14 @@
         <v>115</v>
       </c>
       <c r="J43" s="2">
-        <f>IF(I43&gt;75,290,IF(I43&gt;50,250,IF(I43&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>524005</v>
       </c>
@@ -4426,14 +4428,14 @@
         <v>15</v>
       </c>
       <c r="J44" s="2">
-        <f>IF(I44&gt;75,290,IF(I44&gt;50,250,IF(I44&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>524313</v>
       </c>
@@ -4462,14 +4464,14 @@
         <v>52.5</v>
       </c>
       <c r="J45" s="2">
-        <f>IF(I45&gt;75,290,IF(I45&gt;50,250,IF(I45&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>524366</v>
       </c>
@@ -4498,14 +4500,14 @@
         <v>35</v>
       </c>
       <c r="J46" s="2">
-        <f>IF(I46&gt;75,290,IF(I46&gt;50,250,IF(I46&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>524408</v>
       </c>
@@ -4534,14 +4536,14 @@
         <v>77.5</v>
       </c>
       <c r="J47" s="2">
-        <f>IF(I47&gt;75,290,IF(I47&gt;50,250,IF(I47&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>524303</v>
       </c>
@@ -4570,14 +4572,14 @@
         <v>95</v>
       </c>
       <c r="J48" s="2">
-        <f>IF(I48&gt;75,290,IF(I48&gt;50,250,IF(I48&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>524321</v>
       </c>
@@ -4606,14 +4608,14 @@
         <v>40</v>
       </c>
       <c r="J49" s="2">
-        <f>IF(I49&gt;75,290,IF(I49&gt;50,250,IF(I49&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>524345</v>
       </c>
@@ -4642,14 +4644,14 @@
         <v>55</v>
       </c>
       <c r="J50" s="2">
-        <f>IF(I50&gt;75,290,IF(I50&gt;50,250,IF(I50&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>524225</v>
       </c>
@@ -4678,14 +4680,14 @@
         <v>77.5</v>
       </c>
       <c r="J51" s="2">
-        <f>IF(I51&gt;75,290,IF(I51&gt;50,250,IF(I51&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>524226</v>
       </c>
@@ -4714,14 +4716,14 @@
         <v>140</v>
       </c>
       <c r="J52" s="2">
-        <f>IF(I52&gt;75,290,IF(I52&gt;50,250,IF(I52&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>524308</v>
       </c>
@@ -4750,14 +4752,14 @@
         <v>53.5</v>
       </c>
       <c r="J53" s="2">
-        <f>IF(I53&gt;75,290,IF(I53&gt;50,250,IF(I53&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>524309</v>
       </c>
@@ -4786,14 +4788,14 @@
         <v>51.5</v>
       </c>
       <c r="J54" s="2">
-        <f>IF(I54&gt;75,290,IF(I54&gt;50,250,IF(I54&gt;25,150,0)))</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>524218</v>
       </c>
@@ -4822,14 +4824,14 @@
         <v>55</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" ref="J3:J66" si="0">IF(I55&gt;75,290,IF(I55&gt;50,250,IF(I55&gt;25,150,0)))</f>
+        <f t="shared" ref="J55" si="2">IF(I55&gt;75,290,IF(I55&gt;50,250,IF(I55&gt;25,150,0)))</f>
         <v>250</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>524341</v>
       </c>
@@ -4858,14 +4860,13 @@
         <v>78</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>524412</v>
       </c>
@@ -4894,14 +4895,13 @@
         <v>90</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>524403</v>
       </c>
@@ -4930,14 +4930,13 @@
         <v>110</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>524134</v>
       </c>
@@ -4966,14 +4965,13 @@
         <v>80</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>524410</v>
       </c>
@@ -5002,14 +5000,13 @@
         <v>90</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>524126</v>
       </c>
@@ -5038,14 +5035,13 @@
         <v>80</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>524101</v>
       </c>
@@ -5074,14 +5070,13 @@
         <v>98</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>524102</v>
       </c>
@@ -5110,14 +5105,13 @@
         <v>98</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>524119</v>
       </c>
@@ -5146,14 +5140,13 @@
         <v>120</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>524120</v>
       </c>
@@ -5182,14 +5175,13 @@
         <v>110</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>524121</v>
       </c>
@@ -5218,14 +5210,13 @@
         <v>85</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>524123</v>
       </c>
@@ -5254,14 +5245,13 @@
         <v>94</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" ref="J67:J130" si="1">IF(I67&gt;75,290,IF(I67&gt;50,250,IF(I67&gt;25,150,0)))</f>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>524124</v>
       </c>
@@ -5290,14 +5280,13 @@
         <v>108.3</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>524127</v>
       </c>
@@ -5326,14 +5315,13 @@
         <v>89.9</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>524129</v>
       </c>
@@ -5362,14 +5350,13 @@
         <v>52.6</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>524131</v>
       </c>
@@ -5398,14 +5385,13 @@
         <v>77.900000000000006</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>524132</v>
       </c>
@@ -5434,14 +5420,13 @@
         <v>69.5</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>524401</v>
       </c>
@@ -5470,14 +5455,13 @@
         <v>73.099999999999994</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>524402</v>
       </c>
@@ -5506,14 +5490,13 @@
         <v>87.5</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>524404</v>
       </c>
@@ -5542,14 +5525,13 @@
         <v>68.599999999999994</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>524405</v>
       </c>
@@ -5578,14 +5560,13 @@
         <v>98</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>524411</v>
       </c>
@@ -5614,14 +5595,13 @@
         <v>108.3</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>524414</v>
       </c>
@@ -5650,14 +5630,13 @@
         <v>88.6</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>524421</v>
       </c>
@@ -5686,14 +5665,13 @@
         <v>68.7</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>524441</v>
       </c>
@@ -5722,14 +5700,13 @@
         <v>105</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>524624</v>
       </c>
@@ -5758,14 +5735,13 @@
         <v>105</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>524415</v>
       </c>
@@ -5794,14 +5770,13 @@
         <v>95.8</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>524320</v>
       </c>
@@ -5830,8 +5805,7 @@
         <v>55.3</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>121</v>
@@ -5867,7 +5841,7 @@
         <v>6</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I84&gt;75,290,IF(I84&gt;50,250,IF(I84&gt;25,150,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -5900,11 +5874,11 @@
         <v>30</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I85&gt;75,290,IF(I85&gt;50,250,IF(I85&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>517507</v>
       </c>
@@ -5934,11 +5908,11 @@
         <v>7.5</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I86&gt;75,290,IF(I86&gt;50,250,IF(I86&gt;25,150,0)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>517590</v>
       </c>
@@ -5968,8 +5942,7 @@
         <v>47.5</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -6002,11 +5975,11 @@
         <v>25.7</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I88&gt;75,290,IF(I88&gt;50,250,IF(I88&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>517277</v>
       </c>
@@ -6036,11 +6009,11 @@
         <v>85</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I89&gt;75,290,IF(I89&gt;50,250,IF(I89&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>517001</v>
       </c>
@@ -6070,11 +6043,11 @@
         <v>70</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I90&gt;75,290,IF(I90&gt;50,250,IF(I90&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>517423</v>
       </c>
@@ -6104,11 +6077,11 @@
         <v>172</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I91&gt;75,290,IF(I91&gt;50,250,IF(I91&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>517613</v>
       </c>
@@ -6137,11 +6110,11 @@
         <v>30</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I92&gt;75,290,IF(I92&gt;50,250,IF(I92&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>515412</v>
       </c>
@@ -6170,11 +6143,11 @@
         <v>30</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I93&gt;75,290,IF(I93&gt;50,250,IF(I93&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>517002</v>
       </c>
@@ -6204,11 +6177,11 @@
         <v>75</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I94&gt;75,290,IF(I94&gt;50,250,IF(I94&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>517003</v>
       </c>
@@ -6238,11 +6211,11 @@
         <v>68</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I95&gt;75,290,IF(I95&gt;50,250,IF(I95&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>517004</v>
       </c>
@@ -6272,11 +6245,11 @@
         <v>71</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I96&gt;75,290,IF(I96&gt;50,250,IF(I96&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>517101</v>
       </c>
@@ -6306,11 +6279,11 @@
         <v>15.4</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I97&gt;75,290,IF(I97&gt;50,250,IF(I97&gt;25,150,0)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>517102</v>
       </c>
@@ -6340,11 +6313,11 @@
         <v>16.899999999999999</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I98&gt;75,290,IF(I98&gt;50,250,IF(I98&gt;25,150,0)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>517112</v>
       </c>
@@ -6373,11 +6346,11 @@
         <v>45</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I99&gt;75,290,IF(I99&gt;50,250,IF(I99&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>517113</v>
       </c>
@@ -6407,11 +6380,11 @@
         <v>62</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I100&gt;75,290,IF(I100&gt;50,250,IF(I100&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>517123</v>
       </c>
@@ -6441,11 +6414,11 @@
         <v>71</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I101&gt;75,290,IF(I101&gt;50,250,IF(I101&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>517124</v>
       </c>
@@ -6475,11 +6448,11 @@
         <v>62</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I102&gt;75,290,IF(I102&gt;50,250,IF(I102&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>517125</v>
       </c>
@@ -6509,11 +6482,11 @@
         <v>63</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I103&gt;75,290,IF(I103&gt;50,250,IF(I103&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>517126</v>
       </c>
@@ -6543,11 +6516,11 @@
         <v>52</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I104&gt;75,290,IF(I104&gt;50,250,IF(I104&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>517127</v>
       </c>
@@ -6577,11 +6550,11 @@
         <v>64</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I105&gt;75,290,IF(I105&gt;50,250,IF(I105&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>517128</v>
       </c>
@@ -6611,11 +6584,11 @@
         <v>84</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I106&gt;75,290,IF(I106&gt;50,250,IF(I106&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>517129</v>
       </c>
@@ -6645,11 +6618,11 @@
         <v>76</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I107&gt;75,290,IF(I107&gt;50,250,IF(I107&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>517130</v>
       </c>
@@ -6679,11 +6652,11 @@
         <v>77</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I108&gt;75,290,IF(I108&gt;50,250,IF(I108&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>517131</v>
       </c>
@@ -6713,11 +6686,11 @@
         <v>64</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I109&gt;75,290,IF(I109&gt;50,250,IF(I109&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>517132</v>
       </c>
@@ -6747,11 +6720,11 @@
         <v>90</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I110&gt;75,290,IF(I110&gt;50,250,IF(I110&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>517150</v>
       </c>
@@ -6780,11 +6753,11 @@
         <v>84.6</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I111&gt;75,290,IF(I111&gt;50,250,IF(I111&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>517152</v>
       </c>
@@ -6814,11 +6787,11 @@
         <v>51</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I112&gt;75,290,IF(I112&gt;50,250,IF(I112&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>517167</v>
       </c>
@@ -6848,11 +6821,11 @@
         <v>48.9</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I113&gt;75,290,IF(I113&gt;50,250,IF(I113&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>517172</v>
       </c>
@@ -6882,11 +6855,11 @@
         <v>50</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I114&gt;75,290,IF(I114&gt;50,250,IF(I114&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>517192</v>
       </c>
@@ -6916,11 +6889,11 @@
         <v>53</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I115&gt;75,290,IF(I115&gt;50,250,IF(I115&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>517193</v>
       </c>
@@ -6950,11 +6923,11 @@
         <v>53</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I116&gt;75,290,IF(I116&gt;50,250,IF(I116&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>517194</v>
       </c>
@@ -6984,11 +6957,11 @@
         <v>53</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I117&gt;75,290,IF(I117&gt;50,250,IF(I117&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>517198</v>
       </c>
@@ -7017,11 +6990,11 @@
         <v>37.299999999999997</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I118&gt;75,290,IF(I118&gt;50,250,IF(I118&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>517213</v>
       </c>
@@ -7051,11 +7024,11 @@
         <v>81</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I119&gt;75,290,IF(I119&gt;50,250,IF(I119&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>517214</v>
       </c>
@@ -7085,11 +7058,11 @@
         <v>59</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I120&gt;75,290,IF(I120&gt;50,250,IF(I120&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>517234</v>
       </c>
@@ -7119,11 +7092,11 @@
         <v>76</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I121&gt;75,290,IF(I121&gt;50,250,IF(I121&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>517235</v>
       </c>
@@ -7153,11 +7126,11 @@
         <v>84</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I122&gt;75,290,IF(I122&gt;50,250,IF(I122&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>517236</v>
       </c>
@@ -7187,11 +7160,11 @@
         <v>87</v>
       </c>
       <c r="J123" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I123&gt;75,290,IF(I123&gt;50,250,IF(I123&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>517237</v>
       </c>
@@ -7221,11 +7194,11 @@
         <v>83</v>
       </c>
       <c r="J124" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I124&gt;75,290,IF(I124&gt;50,250,IF(I124&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>517247</v>
       </c>
@@ -7255,11 +7228,11 @@
         <v>138</v>
       </c>
       <c r="J125" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I125&gt;75,290,IF(I125&gt;50,250,IF(I125&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>517257</v>
       </c>
@@ -7289,11 +7262,11 @@
         <v>99</v>
       </c>
       <c r="J126" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I126&gt;75,290,IF(I126&gt;50,250,IF(I126&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>517280</v>
       </c>
@@ -7323,11 +7296,11 @@
         <v>101</v>
       </c>
       <c r="J127" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I127&gt;75,290,IF(I127&gt;50,250,IF(I127&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>517291</v>
       </c>
@@ -7357,11 +7330,11 @@
         <v>112</v>
       </c>
       <c r="J128" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I128&gt;75,290,IF(I128&gt;50,250,IF(I128&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>517297</v>
       </c>
@@ -7391,11 +7364,11 @@
         <v>110</v>
       </c>
       <c r="J129" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I129&gt;75,290,IF(I129&gt;50,250,IF(I129&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>517299</v>
       </c>
@@ -7425,11 +7398,11 @@
         <v>96</v>
       </c>
       <c r="J130" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(I130&gt;75,290,IF(I130&gt;50,250,IF(I130&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>517302</v>
       </c>
@@ -7458,11 +7431,11 @@
         <v>139</v>
       </c>
       <c r="J131" s="2">
-        <f t="shared" ref="J131:J188" si="2">IF(I131&gt;75,290,IF(I131&gt;50,250,IF(I131&gt;25,150,0)))</f>
+        <f>IF(I131&gt;75,290,IF(I131&gt;50,250,IF(I131&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>517305</v>
       </c>
@@ -7492,11 +7465,11 @@
         <v>117</v>
       </c>
       <c r="J132" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I132&gt;75,290,IF(I132&gt;50,250,IF(I132&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>517319</v>
       </c>
@@ -7526,11 +7499,11 @@
         <v>105</v>
       </c>
       <c r="J133" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I133&gt;75,290,IF(I133&gt;50,250,IF(I133&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>517325</v>
       </c>
@@ -7560,11 +7533,11 @@
         <v>121</v>
       </c>
       <c r="J134" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I134&gt;75,290,IF(I134&gt;50,250,IF(I134&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>517326</v>
       </c>
@@ -7594,11 +7567,11 @@
         <v>121</v>
       </c>
       <c r="J135" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I135&gt;75,290,IF(I135&gt;50,250,IF(I135&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>517327</v>
       </c>
@@ -7628,11 +7601,11 @@
         <v>114</v>
       </c>
       <c r="J136" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I136&gt;75,290,IF(I136&gt;50,250,IF(I136&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>517350</v>
       </c>
@@ -7662,11 +7635,11 @@
         <v>124</v>
       </c>
       <c r="J137" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I137&gt;75,290,IF(I137&gt;50,250,IF(I137&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>517351</v>
       </c>
@@ -7696,11 +7669,11 @@
         <v>122</v>
       </c>
       <c r="J138" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I138&gt;75,290,IF(I138&gt;50,250,IF(I138&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>517352</v>
       </c>
@@ -7730,11 +7703,11 @@
         <v>130</v>
       </c>
       <c r="J139" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I139&gt;75,290,IF(I139&gt;50,250,IF(I139&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>517370</v>
       </c>
@@ -7764,11 +7737,11 @@
         <v>149</v>
       </c>
       <c r="J140" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I140&gt;75,290,IF(I140&gt;50,250,IF(I140&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>517390</v>
       </c>
@@ -7798,11 +7771,11 @@
         <v>146</v>
       </c>
       <c r="J141" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I141&gt;75,290,IF(I141&gt;50,250,IF(I141&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>517391</v>
       </c>
@@ -7832,11 +7805,11 @@
         <v>154</v>
       </c>
       <c r="J142" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I142&gt;75,290,IF(I142&gt;50,250,IF(I142&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>517403</v>
       </c>
@@ -7866,11 +7839,11 @@
         <v>99</v>
       </c>
       <c r="J143" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I143&gt;75,290,IF(I143&gt;50,250,IF(I143&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>517408</v>
       </c>
@@ -7900,11 +7873,11 @@
         <v>114</v>
       </c>
       <c r="J144" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I144&gt;75,290,IF(I144&gt;50,250,IF(I144&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>517414</v>
       </c>
@@ -7934,11 +7907,11 @@
         <v>125</v>
       </c>
       <c r="J145" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I145&gt;75,290,IF(I145&gt;50,250,IF(I145&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>517415</v>
       </c>
@@ -7968,11 +7941,11 @@
         <v>132</v>
       </c>
       <c r="J146" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I146&gt;75,290,IF(I146&gt;50,250,IF(I146&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>517416</v>
       </c>
@@ -8002,11 +7975,11 @@
         <v>91</v>
       </c>
       <c r="J147" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I147&gt;75,290,IF(I147&gt;50,250,IF(I147&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>517417</v>
       </c>
@@ -8036,11 +8009,11 @@
         <v>141</v>
       </c>
       <c r="J148" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I148&gt;75,290,IF(I148&gt;50,250,IF(I148&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>517418</v>
       </c>
@@ -8070,11 +8043,11 @@
         <v>138</v>
       </c>
       <c r="J149" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I149&gt;75,290,IF(I149&gt;50,250,IF(I149&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>517419</v>
       </c>
@@ -8104,11 +8077,11 @@
         <v>87</v>
       </c>
       <c r="J150" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I150&gt;75,290,IF(I150&gt;50,250,IF(I150&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>517421</v>
       </c>
@@ -8138,11 +8111,11 @@
         <v>81</v>
       </c>
       <c r="J151" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I151&gt;75,290,IF(I151&gt;50,250,IF(I151&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>517422</v>
       </c>
@@ -8172,11 +8145,11 @@
         <v>81</v>
       </c>
       <c r="J152" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I152&gt;75,290,IF(I152&gt;50,250,IF(I152&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>517424</v>
       </c>
@@ -8206,11 +8179,11 @@
         <v>151</v>
       </c>
       <c r="J153" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I153&gt;75,290,IF(I153&gt;50,250,IF(I153&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>517425</v>
       </c>
@@ -8240,11 +8213,11 @@
         <v>186</v>
       </c>
       <c r="J154" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I154&gt;75,290,IF(I154&gt;50,250,IF(I154&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>517429</v>
       </c>
@@ -8274,11 +8247,11 @@
         <v>96</v>
       </c>
       <c r="J155" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I155&gt;75,290,IF(I155&gt;50,250,IF(I155&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>517432</v>
       </c>
@@ -8308,11 +8281,11 @@
         <v>122</v>
       </c>
       <c r="J156" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I156&gt;75,290,IF(I156&gt;50,250,IF(I156&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>517503</v>
       </c>
@@ -8342,11 +8315,11 @@
         <v>7</v>
       </c>
       <c r="J157" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I157&gt;75,290,IF(I157&gt;50,250,IF(I157&gt;25,150,0)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>517505</v>
       </c>
@@ -8376,11 +8349,11 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="J158" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I158&gt;75,290,IF(I158&gt;50,250,IF(I158&gt;25,150,0)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>517517</v>
       </c>
@@ -8409,7 +8382,7 @@
         <v>11</v>
       </c>
       <c r="J159" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I159&gt;75,290,IF(I159&gt;50,250,IF(I159&gt;25,150,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -8443,11 +8416,11 @@
         <v>20</v>
       </c>
       <c r="J160" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I160&gt;75,290,IF(I160&gt;50,250,IF(I160&gt;25,150,0)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>517536</v>
       </c>
@@ -8477,11 +8450,11 @@
         <v>47.1</v>
       </c>
       <c r="J161" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I161&gt;75,290,IF(I161&gt;50,250,IF(I161&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>517541</v>
       </c>
@@ -8511,11 +8484,10 @@
         <v>70</v>
       </c>
       <c r="J162" s="2">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>517561</v>
       </c>
@@ -8545,7 +8517,7 @@
         <v>17.8</v>
       </c>
       <c r="J163" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I163&gt;75,290,IF(I163&gt;50,250,IF(I163&gt;25,150,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -8579,7 +8551,7 @@
         <v>35.6</v>
       </c>
       <c r="J164" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I164&gt;75,290,IF(I164&gt;50,250,IF(I164&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
@@ -8613,7 +8585,7 @@
         <v>28.4</v>
       </c>
       <c r="J165" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I165&gt;75,290,IF(I165&gt;50,250,IF(I165&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
@@ -8647,7 +8619,7 @@
         <v>37.6</v>
       </c>
       <c r="J166" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I166&gt;75,290,IF(I166&gt;50,250,IF(I166&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
@@ -8681,11 +8653,11 @@
         <v>32.799999999999997</v>
       </c>
       <c r="J167" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I167&gt;75,290,IF(I167&gt;50,250,IF(I167&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>517584</v>
       </c>
@@ -8715,11 +8687,10 @@
         <v>42.4</v>
       </c>
       <c r="J168" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>517586</v>
       </c>
@@ -8749,11 +8720,10 @@
         <v>72</v>
       </c>
       <c r="J169" s="2">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>517587</v>
       </c>
@@ -8783,11 +8753,10 @@
         <v>56</v>
       </c>
       <c r="J170" s="2">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>517588</v>
       </c>
@@ -8817,11 +8786,10 @@
         <v>91</v>
       </c>
       <c r="J171" s="2">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>517589</v>
       </c>
@@ -8851,11 +8819,10 @@
         <v>66</v>
       </c>
       <c r="J172" s="2">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>517591</v>
       </c>
@@ -8885,11 +8852,10 @@
         <v>55</v>
       </c>
       <c r="J173" s="2">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>517592</v>
       </c>
@@ -8919,11 +8885,10 @@
         <v>119</v>
       </c>
       <c r="J174" s="2">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>517599</v>
       </c>
@@ -8953,8 +8918,7 @@
         <v>89</v>
       </c>
       <c r="J175" s="2">
-        <f t="shared" si="2"/>
-        <v>290</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -8987,7 +8951,7 @@
         <v>20.8</v>
       </c>
       <c r="J176" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I176&gt;75,290,IF(I176&gt;50,250,IF(I176&gt;25,150,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -9021,11 +8985,11 @@
         <v>26.1</v>
       </c>
       <c r="J177" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I177&gt;75,290,IF(I177&gt;50,250,IF(I177&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>517640</v>
       </c>
@@ -9055,8 +9019,7 @@
         <v>69</v>
       </c>
       <c r="J178" s="2">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -9089,11 +9052,11 @@
         <v>33.6</v>
       </c>
       <c r="J179" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(I179&gt;75,290,IF(I179&gt;50,250,IF(I179&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>517642</v>
       </c>
@@ -9123,11 +9086,10 @@
         <v>42.5</v>
       </c>
       <c r="J180" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>517643</v>
       </c>
@@ -9157,11 +9119,10 @@
         <v>55</v>
       </c>
       <c r="J181" s="2">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>517644</v>
       </c>
@@ -9191,11 +9152,10 @@
         <v>64</v>
       </c>
       <c r="J182" s="2">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>517582</v>
       </c>
@@ -9225,11 +9185,10 @@
         <v>40.1</v>
       </c>
       <c r="J183" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>517401</v>
       </c>
@@ -9259,7 +9218,7 @@
         <v>166</v>
       </c>
       <c r="J184" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J131:J188" si="3">IF(I184&gt;75,290,IF(I184&gt;50,250,IF(I184&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
@@ -9293,11 +9252,10 @@
         <v>10.1</v>
       </c>
       <c r="J185" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>517664</v>
       </c>
@@ -9326,11 +9284,10 @@
         <v>48</v>
       </c>
       <c r="J186" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>517504</v>
       </c>
@@ -9359,7 +9316,7 @@
         <v>40</v>
       </c>
       <c r="J187" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
@@ -9392,13 +9349,24 @@
         <v>4.5</v>
       </c>
       <c r="J188" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K188">
-    <sortState ref="A3:K54">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SRI SRINIVASA COOL SERVICES"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="0"/>
+        <filter val="150"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A72:K182">
       <sortCondition ref="F1:F188"/>
     </sortState>
   </autoFilter>

--- a/Voltas_non_standard/Mysql/Area_mapping.xlsx
+++ b/Voltas_non_standard/Mysql/Area_mapping.xlsx
@@ -2836,8 +2836,8 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J164" sqref="J164"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182:J182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,7 +2847,7 @@
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19.7109375" customWidth="1"/>
@@ -4831,7 +4831,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>524341</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>524412</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>524403</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>524134</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>524410</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>524126</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>524101</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>524102</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>524119</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>524120</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>524121</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>524123</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>524124</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>524127</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>524129</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>524131</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>524132</v>
       </c>
@@ -5417,16 +5417,16 @@
         <v>18</v>
       </c>
       <c r="I72" s="2">
-        <v>69.5</v>
+        <v>75</v>
       </c>
       <c r="J72" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>524401</v>
       </c>
@@ -5452,16 +5452,16 @@
         <v>18</v>
       </c>
       <c r="I73" s="2">
-        <v>73.099999999999994</v>
+        <v>75</v>
       </c>
       <c r="J73" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>524402</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>524404</v>
       </c>
@@ -5522,16 +5522,16 @@
         <v>18</v>
       </c>
       <c r="I75" s="2">
-        <v>68.599999999999994</v>
+        <v>75</v>
       </c>
       <c r="J75" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>524405</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>524411</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>524414</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>524421</v>
       </c>
@@ -5662,16 +5662,16 @@
         <v>18</v>
       </c>
       <c r="I79" s="2">
-        <v>68.7</v>
+        <v>75</v>
       </c>
       <c r="J79" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>524441</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>524624</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>524415</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>524320</v>
       </c>
@@ -5802,10 +5802,10 @@
         <v>18</v>
       </c>
       <c r="I83" s="2">
-        <v>55.3</v>
+        <v>75</v>
       </c>
       <c r="J83" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>121</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>517590</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>25.7</v>
       </c>
       <c r="J88" s="2">
-        <f>IF(I88&gt;75,290,IF(I88&gt;50,250,IF(I88&gt;25,150,0)))</f>
+        <f t="shared" ref="J88:J119" si="3">IF(I88&gt;75,290,IF(I88&gt;50,250,IF(I88&gt;25,150,0)))</f>
         <v>150</v>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
         <v>85</v>
       </c>
       <c r="J89" s="2">
-        <f>IF(I89&gt;75,290,IF(I89&gt;50,250,IF(I89&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
@@ -6043,7 +6043,7 @@
         <v>70</v>
       </c>
       <c r="J90" s="2">
-        <f>IF(I90&gt;75,290,IF(I90&gt;50,250,IF(I90&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
         <v>172</v>
       </c>
       <c r="J91" s="2">
-        <f>IF(I91&gt;75,290,IF(I91&gt;50,250,IF(I91&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
@@ -6110,7 +6110,7 @@
         <v>30</v>
       </c>
       <c r="J92" s="2">
-        <f>IF(I92&gt;75,290,IF(I92&gt;50,250,IF(I92&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
         <v>30</v>
       </c>
       <c r="J93" s="2">
-        <f>IF(I93&gt;75,290,IF(I93&gt;50,250,IF(I93&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
         <v>75</v>
       </c>
       <c r="J94" s="2">
-        <f>IF(I94&gt;75,290,IF(I94&gt;50,250,IF(I94&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6211,7 +6211,7 @@
         <v>68</v>
       </c>
       <c r="J95" s="2">
-        <f>IF(I95&gt;75,290,IF(I95&gt;50,250,IF(I95&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
         <v>71</v>
       </c>
       <c r="J96" s="2">
-        <f>IF(I96&gt;75,290,IF(I96&gt;50,250,IF(I96&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
         <v>15.4</v>
       </c>
       <c r="J97" s="2">
-        <f>IF(I97&gt;75,290,IF(I97&gt;50,250,IF(I97&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="J98" s="2">
-        <f>IF(I98&gt;75,290,IF(I98&gt;50,250,IF(I98&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6346,7 +6346,7 @@
         <v>45</v>
       </c>
       <c r="J99" s="2">
-        <f>IF(I99&gt;75,290,IF(I99&gt;50,250,IF(I99&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
@@ -6380,7 +6380,7 @@
         <v>62</v>
       </c>
       <c r="J100" s="2">
-        <f>IF(I100&gt;75,290,IF(I100&gt;50,250,IF(I100&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6414,7 +6414,7 @@
         <v>71</v>
       </c>
       <c r="J101" s="2">
-        <f>IF(I101&gt;75,290,IF(I101&gt;50,250,IF(I101&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6448,7 +6448,7 @@
         <v>62</v>
       </c>
       <c r="J102" s="2">
-        <f>IF(I102&gt;75,290,IF(I102&gt;50,250,IF(I102&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6482,7 +6482,7 @@
         <v>63</v>
       </c>
       <c r="J103" s="2">
-        <f>IF(I103&gt;75,290,IF(I103&gt;50,250,IF(I103&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
         <v>52</v>
       </c>
       <c r="J104" s="2">
-        <f>IF(I104&gt;75,290,IF(I104&gt;50,250,IF(I104&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>64</v>
       </c>
       <c r="J105" s="2">
-        <f>IF(I105&gt;75,290,IF(I105&gt;50,250,IF(I105&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6584,7 +6584,7 @@
         <v>84</v>
       </c>
       <c r="J106" s="2">
-        <f>IF(I106&gt;75,290,IF(I106&gt;50,250,IF(I106&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
         <v>76</v>
       </c>
       <c r="J107" s="2">
-        <f>IF(I107&gt;75,290,IF(I107&gt;50,250,IF(I107&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
         <v>77</v>
       </c>
       <c r="J108" s="2">
-        <f>IF(I108&gt;75,290,IF(I108&gt;50,250,IF(I108&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
         <v>64</v>
       </c>
       <c r="J109" s="2">
-        <f>IF(I109&gt;75,290,IF(I109&gt;50,250,IF(I109&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6720,7 +6720,7 @@
         <v>90</v>
       </c>
       <c r="J110" s="2">
-        <f>IF(I110&gt;75,290,IF(I110&gt;50,250,IF(I110&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
         <v>84.6</v>
       </c>
       <c r="J111" s="2">
-        <f>IF(I111&gt;75,290,IF(I111&gt;50,250,IF(I111&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
         <v>51</v>
       </c>
       <c r="J112" s="2">
-        <f>IF(I112&gt;75,290,IF(I112&gt;50,250,IF(I112&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
         <v>48.9</v>
       </c>
       <c r="J113" s="2">
-        <f>IF(I113&gt;75,290,IF(I113&gt;50,250,IF(I113&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
         <v>50</v>
       </c>
       <c r="J114" s="2">
-        <f>IF(I114&gt;75,290,IF(I114&gt;50,250,IF(I114&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
         <v>53</v>
       </c>
       <c r="J115" s="2">
-        <f>IF(I115&gt;75,290,IF(I115&gt;50,250,IF(I115&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6923,7 +6923,7 @@
         <v>53</v>
       </c>
       <c r="J116" s="2">
-        <f>IF(I116&gt;75,290,IF(I116&gt;50,250,IF(I116&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
         <v>53</v>
       </c>
       <c r="J117" s="2">
-        <f>IF(I117&gt;75,290,IF(I117&gt;50,250,IF(I117&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -6990,7 +6990,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="J118" s="2">
-        <f>IF(I118&gt;75,290,IF(I118&gt;50,250,IF(I118&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
@@ -7024,7 +7024,7 @@
         <v>81</v>
       </c>
       <c r="J119" s="2">
-        <f>IF(I119&gt;75,290,IF(I119&gt;50,250,IF(I119&gt;25,150,0)))</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
         <v>59</v>
       </c>
       <c r="J120" s="2">
-        <f>IF(I120&gt;75,290,IF(I120&gt;50,250,IF(I120&gt;25,150,0)))</f>
+        <f t="shared" ref="J120:J151" si="4">IF(I120&gt;75,290,IF(I120&gt;50,250,IF(I120&gt;25,150,0)))</f>
         <v>250</v>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
         <v>76</v>
       </c>
       <c r="J121" s="2">
-        <f>IF(I121&gt;75,290,IF(I121&gt;50,250,IF(I121&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
         <v>84</v>
       </c>
       <c r="J122" s="2">
-        <f>IF(I122&gt;75,290,IF(I122&gt;50,250,IF(I122&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
         <v>87</v>
       </c>
       <c r="J123" s="2">
-        <f>IF(I123&gt;75,290,IF(I123&gt;50,250,IF(I123&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7194,7 +7194,7 @@
         <v>83</v>
       </c>
       <c r="J124" s="2">
-        <f>IF(I124&gt;75,290,IF(I124&gt;50,250,IF(I124&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
         <v>138</v>
       </c>
       <c r="J125" s="2">
-        <f>IF(I125&gt;75,290,IF(I125&gt;50,250,IF(I125&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7262,7 +7262,7 @@
         <v>99</v>
       </c>
       <c r="J126" s="2">
-        <f>IF(I126&gt;75,290,IF(I126&gt;50,250,IF(I126&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7296,7 +7296,7 @@
         <v>101</v>
       </c>
       <c r="J127" s="2">
-        <f>IF(I127&gt;75,290,IF(I127&gt;50,250,IF(I127&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
         <v>112</v>
       </c>
       <c r="J128" s="2">
-        <f>IF(I128&gt;75,290,IF(I128&gt;50,250,IF(I128&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
         <v>110</v>
       </c>
       <c r="J129" s="2">
-        <f>IF(I129&gt;75,290,IF(I129&gt;50,250,IF(I129&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7398,7 +7398,7 @@
         <v>96</v>
       </c>
       <c r="J130" s="2">
-        <f>IF(I130&gt;75,290,IF(I130&gt;50,250,IF(I130&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
         <v>139</v>
       </c>
       <c r="J131" s="2">
-        <f>IF(I131&gt;75,290,IF(I131&gt;50,250,IF(I131&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7465,7 +7465,7 @@
         <v>117</v>
       </c>
       <c r="J132" s="2">
-        <f>IF(I132&gt;75,290,IF(I132&gt;50,250,IF(I132&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7499,7 +7499,7 @@
         <v>105</v>
       </c>
       <c r="J133" s="2">
-        <f>IF(I133&gt;75,290,IF(I133&gt;50,250,IF(I133&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
         <v>121</v>
       </c>
       <c r="J134" s="2">
-        <f>IF(I134&gt;75,290,IF(I134&gt;50,250,IF(I134&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7567,7 +7567,7 @@
         <v>121</v>
       </c>
       <c r="J135" s="2">
-        <f>IF(I135&gt;75,290,IF(I135&gt;50,250,IF(I135&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
         <v>114</v>
       </c>
       <c r="J136" s="2">
-        <f>IF(I136&gt;75,290,IF(I136&gt;50,250,IF(I136&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
         <v>124</v>
       </c>
       <c r="J137" s="2">
-        <f>IF(I137&gt;75,290,IF(I137&gt;50,250,IF(I137&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
         <v>122</v>
       </c>
       <c r="J138" s="2">
-        <f>IF(I138&gt;75,290,IF(I138&gt;50,250,IF(I138&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
         <v>130</v>
       </c>
       <c r="J139" s="2">
-        <f>IF(I139&gt;75,290,IF(I139&gt;50,250,IF(I139&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
         <v>149</v>
       </c>
       <c r="J140" s="2">
-        <f>IF(I140&gt;75,290,IF(I140&gt;50,250,IF(I140&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7771,7 +7771,7 @@
         <v>146</v>
       </c>
       <c r="J141" s="2">
-        <f>IF(I141&gt;75,290,IF(I141&gt;50,250,IF(I141&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
         <v>154</v>
       </c>
       <c r="J142" s="2">
-        <f>IF(I142&gt;75,290,IF(I142&gt;50,250,IF(I142&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7839,7 +7839,7 @@
         <v>99</v>
       </c>
       <c r="J143" s="2">
-        <f>IF(I143&gt;75,290,IF(I143&gt;50,250,IF(I143&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7873,7 +7873,7 @@
         <v>114</v>
       </c>
       <c r="J144" s="2">
-        <f>IF(I144&gt;75,290,IF(I144&gt;50,250,IF(I144&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
         <v>125</v>
       </c>
       <c r="J145" s="2">
-        <f>IF(I145&gt;75,290,IF(I145&gt;50,250,IF(I145&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
         <v>132</v>
       </c>
       <c r="J146" s="2">
-        <f>IF(I146&gt;75,290,IF(I146&gt;50,250,IF(I146&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
         <v>91</v>
       </c>
       <c r="J147" s="2">
-        <f>IF(I147&gt;75,290,IF(I147&gt;50,250,IF(I147&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -8009,7 +8009,7 @@
         <v>141</v>
       </c>
       <c r="J148" s="2">
-        <f>IF(I148&gt;75,290,IF(I148&gt;50,250,IF(I148&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -8043,7 +8043,7 @@
         <v>138</v>
       </c>
       <c r="J149" s="2">
-        <f>IF(I149&gt;75,290,IF(I149&gt;50,250,IF(I149&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -8077,7 +8077,7 @@
         <v>87</v>
       </c>
       <c r="J150" s="2">
-        <f>IF(I150&gt;75,290,IF(I150&gt;50,250,IF(I150&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
         <v>81</v>
       </c>
       <c r="J151" s="2">
-        <f>IF(I151&gt;75,290,IF(I151&gt;50,250,IF(I151&gt;25,150,0)))</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
         <v>81</v>
       </c>
       <c r="J152" s="2">
-        <f>IF(I152&gt;75,290,IF(I152&gt;50,250,IF(I152&gt;25,150,0)))</f>
+        <f t="shared" ref="J152:J161" si="5">IF(I152&gt;75,290,IF(I152&gt;50,250,IF(I152&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
@@ -8179,7 +8179,7 @@
         <v>151</v>
       </c>
       <c r="J153" s="2">
-        <f>IF(I153&gt;75,290,IF(I153&gt;50,250,IF(I153&gt;25,150,0)))</f>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -8213,7 +8213,7 @@
         <v>186</v>
       </c>
       <c r="J154" s="2">
-        <f>IF(I154&gt;75,290,IF(I154&gt;50,250,IF(I154&gt;25,150,0)))</f>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -8247,7 +8247,7 @@
         <v>96</v>
       </c>
       <c r="J155" s="2">
-        <f>IF(I155&gt;75,290,IF(I155&gt;50,250,IF(I155&gt;25,150,0)))</f>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
         <v>122</v>
       </c>
       <c r="J156" s="2">
-        <f>IF(I156&gt;75,290,IF(I156&gt;50,250,IF(I156&gt;25,150,0)))</f>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
         <v>7</v>
       </c>
       <c r="J157" s="2">
-        <f>IF(I157&gt;75,290,IF(I157&gt;50,250,IF(I157&gt;25,150,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="J158" s="2">
-        <f>IF(I158&gt;75,290,IF(I158&gt;50,250,IF(I158&gt;25,150,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8382,7 +8382,7 @@
         <v>11</v>
       </c>
       <c r="J159" s="2">
-        <f>IF(I159&gt;75,290,IF(I159&gt;50,250,IF(I159&gt;25,150,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
         <v>20</v>
       </c>
       <c r="J160" s="2">
-        <f>IF(I160&gt;75,290,IF(I160&gt;50,250,IF(I160&gt;25,150,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8450,11 +8450,11 @@
         <v>47.1</v>
       </c>
       <c r="J161" s="2">
-        <f>IF(I161&gt;75,290,IF(I161&gt;50,250,IF(I161&gt;25,150,0)))</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>517541</v>
       </c>
@@ -8480,11 +8480,10 @@
         <v>18</v>
       </c>
       <c r="I162" s="2">
-        <f>VLOOKUP(A162,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J162" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -8657,7 +8656,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>517584</v>
       </c>
@@ -8690,7 +8689,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>517586</v>
       </c>
@@ -8716,14 +8715,13 @@
         <v>18</v>
       </c>
       <c r="I169" s="2">
-        <f>VLOOKUP(A169,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J169" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>517587</v>
       </c>
@@ -8749,14 +8747,13 @@
         <v>18</v>
       </c>
       <c r="I170" s="2">
-        <f>VLOOKUP(A170,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J170" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>517588</v>
       </c>
@@ -8789,7 +8786,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>517589</v>
       </c>
@@ -8815,14 +8812,13 @@
         <v>18</v>
       </c>
       <c r="I172" s="2">
-        <f>VLOOKUP(A172,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J172" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>517591</v>
       </c>
@@ -8848,14 +8844,13 @@
         <v>18</v>
       </c>
       <c r="I173" s="2">
-        <f>VLOOKUP(A173,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J173" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>517592</v>
       </c>
@@ -8888,7 +8883,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>517599</v>
       </c>
@@ -8989,7 +8984,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>517640</v>
       </c>
@@ -9015,11 +9010,10 @@
         <v>18</v>
       </c>
       <c r="I178" s="2">
-        <f>VLOOKUP(A178,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J178" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -9056,7 +9050,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>517642</v>
       </c>
@@ -9089,7 +9083,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>517643</v>
       </c>
@@ -9115,14 +9109,13 @@
         <v>18</v>
       </c>
       <c r="I181" s="2">
-        <f>VLOOKUP(A181,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J181" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>517644</v>
       </c>
@@ -9148,14 +9141,13 @@
         <v>18</v>
       </c>
       <c r="I182" s="2">
-        <f>VLOOKUP(A182,'[1]Bot Result'!$A$1:$C$106,3,FALSE)</f>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J182" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>517582</v>
       </c>
@@ -9218,7 +9210,7 @@
         <v>166</v>
       </c>
       <c r="J184" s="2">
-        <f t="shared" ref="J131:J188" si="3">IF(I184&gt;75,290,IF(I184&gt;50,250,IF(I184&gt;25,150,0)))</f>
+        <f t="shared" ref="J184:J188" si="6">IF(I184&gt;75,290,IF(I184&gt;50,250,IF(I184&gt;25,150,0)))</f>
         <v>290</v>
       </c>
     </row>
@@ -9255,7 +9247,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>517664</v>
       </c>
@@ -9281,10 +9273,10 @@
         <v>18</v>
       </c>
       <c r="I186" s="2">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="J186" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
     <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -9316,7 +9308,7 @@
         <v>40</v>
       </c>
       <c r="J187" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
     </row>
@@ -9349,7 +9341,7 @@
         <v>4.5</v>
       </c>
       <c r="J188" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9358,12 +9350,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="SRI SRINIVASA COOL SERVICES"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="0"/>
-        <filter val="150"/>
       </filters>
     </filterColumn>
     <sortState ref="A72:K182">
